--- a/model/bank_statements/IDFC First Bank.xlsx
+++ b/model/bank_statements/IDFC First Bank.xlsx
@@ -1,28 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
-  <workbookPr defaultThemeVersion="202300"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\henry\Documents\CS Proj\Job Materials\Casca\Bank Statements\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A726A131-769D-498D-8FCB-7620CA0DA775}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{48DB9B63-EE13-4B24-9CE2-42115CED5BF5}"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="IDFC First Bank" sheetId="1" r:id="rId1"/>
+    <sheet r:id="rId1" sheetId="1" name="IDFC First Bank"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="208">
   <si>
-    <t>Transaction Date</t>
+    <t>Date</t>
   </si>
   <si>
     <t>Value Date</t>
@@ -649,325 +643,32 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Aptos Display"/>
-      <family val="2"/>
-      <scheme val="major"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C5700"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -979,210 +680,63 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="thick">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.39997558519241921"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+  <cellXfs count="14">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="15" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="42">
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
+  <cellStyles count="1">
+    <cellStyle xfId="0" builtinId="0" name="Normal"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1193,10 +747,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="0E2841"/>
@@ -1223,116 +777,82 @@
         <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="467886"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="96607D"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Times New Roman" script="Arab"/>
+        <a:font typeface="Times New Roman" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="MoolBoran" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Times New Roman" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Arial" script="Arab"/>
+        <a:font typeface="Arial" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="DaunPenh" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Arial" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1344,3672 +864,4085 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="35000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
+                <a:tint val="51000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:tint val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="9500"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot rev="0" lon="0" lat="0"/>
+            </a:camera>
+            <a:lightRig dir="t" rig="threePt">
+              <a:rot rev="1200000" lon="0" lat="0"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="40000">
               <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:tint val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults>
-    <a:lnDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </a:style>
-    </a:lnDef>
-  </a:objectDefaults>
+  <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5403B73-3A74-4773-9232-379ACF940317}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
   <dimension ref="A1:G205"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
-    </sheetView>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.44140625" customWidth="1"/>
-    <col min="2" max="2" width="10.88671875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="17.5546875" customWidth="1"/>
+    <col min="1" max="1" style="9" width="11.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="9" width="10.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="10" width="15.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="11" width="17.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="13" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+      <c r="A2" s="6">
         <v>43191</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="6">
         <v>43191</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F2">
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="7">
         <v>1</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="8">
         <v>22.62</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+      <c r="A3" s="6">
         <v>43191</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="6">
         <v>43191</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F3">
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="7">
         <v>2000</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="8">
         <v>2022.62</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+      <c r="A4" s="6">
         <v>43193</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="6">
         <v>43193</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E4">
+      <c r="D4" s="3"/>
+      <c r="E4" s="7">
         <v>1912</v>
       </c>
-      <c r="G4">
+      <c r="F4" s="4"/>
+      <c r="G4" s="8">
         <v>110.62</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+      <c r="A5" s="6">
         <v>43194</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="6">
         <v>43194</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F5">
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="8">
         <v>170.2</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="8">
         <v>280.82</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+      <c r="A6" s="6">
         <v>43194</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="6">
         <v>43194</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E6">
+      <c r="D6" s="3"/>
+      <c r="E6" s="7">
         <v>75</v>
       </c>
-      <c r="G6">
+      <c r="F6" s="4"/>
+      <c r="G6" s="8">
         <v>205.82</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+      <c r="A7" s="6">
         <v>43195</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="6">
         <v>43195</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F7">
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="7">
         <v>3200</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="8">
         <v>3405.82</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+      <c r="A8" s="6">
         <v>43200</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="6">
         <v>43200</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E8">
+      <c r="D8" s="3"/>
+      <c r="E8" s="7">
         <v>509</v>
       </c>
-      <c r="G8">
+      <c r="F8" s="4"/>
+      <c r="G8" s="8">
         <v>2896.82</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+      <c r="A9" s="6">
         <v>43200</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9" s="6">
         <v>43200</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E9">
+      <c r="D9" s="3"/>
+      <c r="E9" s="7">
         <v>2000</v>
       </c>
-      <c r="G9">
+      <c r="F9" s="4"/>
+      <c r="G9" s="8">
         <v>896.82</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+      <c r="A10" s="6">
         <v>43204</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10" s="6">
         <v>43204</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E10">
+      <c r="D10" s="3"/>
+      <c r="E10" s="7">
         <v>500</v>
       </c>
-      <c r="G10">
+      <c r="F10" s="4"/>
+      <c r="G10" s="8">
         <v>396.82</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="1">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+      <c r="A11" s="6">
         <v>43210</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11" s="6">
         <v>43210</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E11">
+      <c r="D11" s="3"/>
+      <c r="E11" s="7">
         <v>300</v>
       </c>
-      <c r="G11">
+      <c r="F11" s="4"/>
+      <c r="G11" s="8">
         <v>96.82</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="1">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+      <c r="A12" s="6">
         <v>43210</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12" s="6">
         <v>43210</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F12">
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="7">
         <v>300</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="8">
         <v>396.82</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="1">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+      <c r="A13" s="6">
         <v>43210</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13" s="6">
         <v>43210</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E13">
+      <c r="D13" s="3"/>
+      <c r="E13" s="7">
         <v>75</v>
       </c>
-      <c r="G13">
+      <c r="F13" s="4"/>
+      <c r="G13" s="8">
         <v>321.82</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="1">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+      <c r="A14" s="6">
         <v>43212</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14" s="6">
         <v>43212</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F14">
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="7">
         <v>1</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="8">
         <v>322.82</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="1">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
+      <c r="A15" s="6">
         <v>43212</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B15" s="6">
         <v>43212</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F15">
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="7">
         <v>4999</v>
       </c>
-      <c r="G15">
+      <c r="G15" s="8">
         <v>5321.82</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="1">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
+      <c r="A16" s="6">
         <v>43212</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B16" s="6">
         <v>43212</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E16">
+      <c r="D16" s="3"/>
+      <c r="E16" s="7">
         <v>1000</v>
       </c>
-      <c r="G16">
+      <c r="F16" s="4"/>
+      <c r="G16" s="8">
         <v>4321.82</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="1">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
+      <c r="A17" s="6">
         <v>43212</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B17" s="6">
         <v>43212</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E17">
+      <c r="D17" s="3"/>
+      <c r="E17" s="7">
         <v>500</v>
       </c>
-      <c r="G17">
+      <c r="F17" s="4"/>
+      <c r="G17" s="8">
         <v>3821.82</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="1">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
+      <c r="A18" s="6">
         <v>43213</v>
       </c>
-      <c r="B18" s="1">
+      <c r="B18" s="6">
         <v>43213</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E18">
+      <c r="D18" s="3"/>
+      <c r="E18" s="7">
         <v>1000</v>
       </c>
-      <c r="G18">
+      <c r="F18" s="4"/>
+      <c r="G18" s="8">
         <v>2821.82</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="1">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
+      <c r="A19" s="6">
         <v>43213</v>
       </c>
-      <c r="B19" s="1">
+      <c r="B19" s="6">
         <v>43213</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E19">
+      <c r="D19" s="3"/>
+      <c r="E19" s="7">
         <v>2500</v>
       </c>
-      <c r="G19">
+      <c r="F19" s="4"/>
+      <c r="G19" s="8">
         <v>321.82</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="1">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
+      <c r="A20" s="6">
         <v>43213</v>
       </c>
-      <c r="B20" s="1">
+      <c r="B20" s="6">
         <v>43213</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E20">
+      <c r="D20" s="3"/>
+      <c r="E20" s="7">
         <v>300</v>
       </c>
-      <c r="G20">
+      <c r="F20" s="4"/>
+      <c r="G20" s="8">
         <v>21.82</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="1">
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
+      <c r="A21" s="6">
         <v>43223</v>
       </c>
-      <c r="B21" s="1">
+      <c r="B21" s="6">
         <v>43223</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F21">
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="7">
         <v>2000</v>
       </c>
-      <c r="G21">
+      <c r="G21" s="8">
         <v>2021.82</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="1">
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
+      <c r="A22" s="6">
         <v>43225</v>
       </c>
-      <c r="B22" s="1">
+      <c r="B22" s="6">
         <v>43225</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E22">
+      <c r="D22" s="3"/>
+      <c r="E22" s="7">
         <v>1912</v>
       </c>
-      <c r="G22">
+      <c r="F22" s="4"/>
+      <c r="G22" s="8">
         <v>109.82</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="1">
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
+      <c r="A23" s="6">
         <v>43229</v>
       </c>
-      <c r="B23" s="1">
+      <c r="B23" s="6">
         <v>43229</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E23">
+      <c r="D23" s="3"/>
+      <c r="E23" s="7">
         <v>100</v>
       </c>
-      <c r="G23">
+      <c r="F23" s="4"/>
+      <c r="G23" s="8">
         <v>9.82</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="1">
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
+      <c r="A24" s="6">
         <v>43229</v>
       </c>
-      <c r="B24" s="1">
+      <c r="B24" s="6">
         <v>43229</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F24">
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="7">
         <v>200</v>
       </c>
-      <c r="G24">
+      <c r="G24" s="8">
         <v>209.82</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="1">
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
+      <c r="A25" s="6">
         <v>43231</v>
       </c>
-      <c r="B25" s="1">
+      <c r="B25" s="6">
         <v>43231</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E25">
+      <c r="D25" s="3"/>
+      <c r="E25" s="7">
         <v>200</v>
       </c>
-      <c r="G25">
+      <c r="F25" s="4"/>
+      <c r="G25" s="8">
         <v>9.82</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="1">
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
+      <c r="A26" s="6">
         <v>43231</v>
       </c>
-      <c r="B26" s="1">
+      <c r="B26" s="6">
         <v>43231</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F26">
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="7">
         <v>200</v>
       </c>
-      <c r="G26">
+      <c r="G26" s="8">
         <v>209.82</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="1">
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
+      <c r="A27" s="6">
         <v>43231</v>
       </c>
-      <c r="B27" s="1">
+      <c r="B27" s="6">
         <v>43231</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E27">
+      <c r="D27" s="3"/>
+      <c r="E27" s="7">
         <v>200</v>
       </c>
-      <c r="G27">
+      <c r="F27" s="4"/>
+      <c r="G27" s="8">
         <v>9.82</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="1">
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
+      <c r="A28" s="6">
         <v>43231</v>
       </c>
-      <c r="B28" s="1">
+      <c r="B28" s="6">
         <v>43231</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F28">
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="7">
         <v>200</v>
       </c>
-      <c r="G28">
+      <c r="G28" s="8">
         <v>209.82</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" s="1">
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
+      <c r="A29" s="6">
         <v>43232</v>
       </c>
-      <c r="B29" s="1">
+      <c r="B29" s="6">
         <v>43232</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E29">
+      <c r="D29" s="3"/>
+      <c r="E29" s="7">
         <v>27</v>
       </c>
-      <c r="G29">
+      <c r="F29" s="4"/>
+      <c r="G29" s="8">
         <v>182.82</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" s="1">
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
+      <c r="A30" s="6">
         <v>43236</v>
       </c>
-      <c r="B30" s="1">
+      <c r="B30" s="6">
         <v>43236</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E30">
+      <c r="D30" s="3"/>
+      <c r="E30" s="7">
         <v>100</v>
       </c>
-      <c r="G30">
+      <c r="F30" s="4"/>
+      <c r="G30" s="8">
         <v>82.82</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31" s="1">
+    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
+      <c r="A31" s="6">
         <v>43237</v>
       </c>
-      <c r="B31" s="1">
+      <c r="B31" s="6">
         <v>43237</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C31" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F31">
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="8">
         <v>134.06</v>
       </c>
-      <c r="G31">
+      <c r="G31" s="8">
         <v>216.88</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A32" s="1">
+    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
+      <c r="A32" s="6">
         <v>43237</v>
       </c>
-      <c r="B32" s="1">
+      <c r="B32" s="6">
         <v>43237</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C32" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F32">
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="7">
         <v>6000</v>
       </c>
-      <c r="G32">
+      <c r="G32" s="8">
         <v>6216.88</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A33" s="1">
+    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
+      <c r="A33" s="6">
         <v>43238</v>
       </c>
-      <c r="B33" s="1">
+      <c r="B33" s="6">
         <v>43238</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C33" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="F33">
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="7">
         <v>1200</v>
       </c>
-      <c r="G33">
+      <c r="G33" s="8">
         <v>7416.88</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A34" s="1">
+    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
+      <c r="A34" s="6">
         <v>43238</v>
       </c>
-      <c r="B34" s="1">
+      <c r="B34" s="6">
         <v>43238</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C34" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E34">
+      <c r="D34" s="3"/>
+      <c r="E34" s="7">
         <v>500</v>
       </c>
-      <c r="G34">
+      <c r="F34" s="4"/>
+      <c r="G34" s="8">
         <v>6916.88</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A35" s="1">
+    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
+      <c r="A35" s="6">
         <v>43240</v>
       </c>
-      <c r="B35" s="1">
+      <c r="B35" s="6">
         <v>43240</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C35" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E35">
+      <c r="D35" s="3"/>
+      <c r="E35" s="7">
         <v>500</v>
       </c>
-      <c r="G35">
+      <c r="F35" s="4"/>
+      <c r="G35" s="8">
         <v>6416.88</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A36" s="1">
+    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
+      <c r="A36" s="6">
         <v>43240</v>
       </c>
-      <c r="B36" s="1">
+      <c r="B36" s="6">
         <v>43240</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C36" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="E36">
+      <c r="D36" s="3"/>
+      <c r="E36" s="7">
         <v>75</v>
       </c>
-      <c r="G36">
+      <c r="F36" s="4"/>
+      <c r="G36" s="8">
         <v>6341.88</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A37" s="1">
+    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
+      <c r="A37" s="6">
         <v>43241</v>
       </c>
-      <c r="B37" s="1">
+      <c r="B37" s="6">
         <v>43241</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C37" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="E37">
+      <c r="D37" s="3"/>
+      <c r="E37" s="7">
         <v>1000</v>
       </c>
-      <c r="G37">
+      <c r="F37" s="4"/>
+      <c r="G37" s="8">
         <v>5341.88</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A38" s="1">
+    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
+      <c r="A38" s="6">
         <v>43241</v>
       </c>
-      <c r="B38" s="1">
+      <c r="B38" s="6">
         <v>43241</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C38" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E38">
+      <c r="D38" s="3"/>
+      <c r="E38" s="7">
         <v>569</v>
       </c>
-      <c r="G38">
+      <c r="F38" s="4"/>
+      <c r="G38" s="8">
         <v>4772.88</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A39" s="1">
+    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75">
+      <c r="A39" s="6">
         <v>43241</v>
       </c>
-      <c r="B39" s="1">
+      <c r="B39" s="6">
         <v>43241</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C39" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="E39">
+      <c r="D39" s="3"/>
+      <c r="E39" s="7">
         <v>3000</v>
       </c>
-      <c r="G39">
+      <c r="F39" s="4"/>
+      <c r="G39" s="8">
         <v>1772.88</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A40" s="1">
+    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75">
+      <c r="A40" s="6">
         <v>43241</v>
       </c>
-      <c r="B40" s="1">
+      <c r="B40" s="6">
         <v>43241</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C40" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E40">
+      <c r="D40" s="3"/>
+      <c r="E40" s="7">
         <v>300</v>
       </c>
-      <c r="G40">
+      <c r="F40" s="4"/>
+      <c r="G40" s="8">
         <v>1472.88</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A41" s="1">
+    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75">
+      <c r="A41" s="6">
         <v>43243</v>
       </c>
-      <c r="B41" s="1">
+      <c r="B41" s="6">
         <v>43243</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C41" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="E41">
+      <c r="D41" s="3"/>
+      <c r="E41" s="7">
         <v>100</v>
       </c>
-      <c r="G41">
+      <c r="F41" s="4"/>
+      <c r="G41" s="8">
         <v>1372.88</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A42" s="1">
+    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75">
+      <c r="A42" s="6">
         <v>43243</v>
       </c>
-      <c r="B42" s="1">
+      <c r="B42" s="6">
         <v>43243</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C42" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="E42">
+      <c r="D42" s="3"/>
+      <c r="E42" s="7">
         <v>1000</v>
       </c>
-      <c r="G42">
+      <c r="F42" s="4"/>
+      <c r="G42" s="8">
         <v>372.88</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A43" s="1">
+    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75">
+      <c r="A43" s="6">
         <v>43252</v>
       </c>
-      <c r="B43" s="1">
+      <c r="B43" s="6">
         <v>43252</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C43" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="E43">
+      <c r="D43" s="3"/>
+      <c r="E43" s="7">
         <v>261</v>
       </c>
-      <c r="G43">
+      <c r="F43" s="4"/>
+      <c r="G43" s="8">
         <v>111.88</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A44" s="1">
+    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75">
+      <c r="A44" s="6">
         <v>43252</v>
       </c>
-      <c r="B44" s="1">
+      <c r="B44" s="6">
         <v>43252</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C44" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="F44">
+      <c r="D44" s="3"/>
+      <c r="E44" s="3"/>
+      <c r="F44" s="7">
         <v>2000</v>
       </c>
-      <c r="G44">
+      <c r="G44" s="8">
         <v>2111.88</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A45" s="1">
+    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75">
+      <c r="A45" s="6">
         <v>43253</v>
       </c>
-      <c r="B45" s="1">
+      <c r="B45" s="6">
         <v>43253</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C45" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E45">
+      <c r="D45" s="3"/>
+      <c r="E45" s="7">
         <v>1912</v>
       </c>
-      <c r="G45">
+      <c r="F45" s="4"/>
+      <c r="G45" s="8">
         <v>199.88</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A46" s="1">
+    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75">
+      <c r="A46" s="6">
         <v>43257</v>
       </c>
-      <c r="B46" s="1">
+      <c r="B46" s="6">
         <v>43257</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C46" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="E46">
+      <c r="D46" s="3"/>
+      <c r="E46" s="7">
         <v>20</v>
       </c>
-      <c r="G46">
+      <c r="F46" s="4"/>
+      <c r="G46" s="8">
         <v>179.88</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A47" s="1">
+    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18.75">
+      <c r="A47" s="6">
         <v>43257</v>
       </c>
-      <c r="B47" s="1">
+      <c r="B47" s="6">
         <v>43257</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C47" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="E47">
+      <c r="D47" s="3"/>
+      <c r="E47" s="8">
         <v>1.8</v>
       </c>
-      <c r="G47">
+      <c r="F47" s="4"/>
+      <c r="G47" s="8">
         <v>178.08</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A48" s="1">
+    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18.75">
+      <c r="A48" s="6">
         <v>43257</v>
       </c>
-      <c r="B48" s="1">
+      <c r="B48" s="6">
         <v>43257</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C48" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E48">
+      <c r="D48" s="3"/>
+      <c r="E48" s="8">
         <v>1.8</v>
       </c>
-      <c r="G48">
+      <c r="F48" s="4"/>
+      <c r="G48" s="8">
         <v>176.28</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A49" s="1">
+    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18.75">
+      <c r="A49" s="6">
         <v>43270</v>
       </c>
-      <c r="B49" s="1">
+      <c r="B49" s="6">
         <v>43270</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C49" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="F49">
+      <c r="D49" s="3"/>
+      <c r="E49" s="3"/>
+      <c r="F49" s="8">
         <v>180.19</v>
       </c>
-      <c r="G49">
+      <c r="G49" s="8">
         <v>356.47</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A50" s="1">
+    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18.75">
+      <c r="A50" s="6">
         <v>43281</v>
       </c>
-      <c r="B50" s="1">
+      <c r="B50" s="6">
         <v>43281</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C50" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="F50">
+      <c r="D50" s="3"/>
+      <c r="E50" s="3"/>
+      <c r="F50" s="7">
         <v>9</v>
       </c>
-      <c r="G50">
+      <c r="G50" s="8">
         <v>365.47</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A51" s="1">
+    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18.75">
+      <c r="A51" s="6">
         <v>43282</v>
       </c>
-      <c r="B51" s="1">
+      <c r="B51" s="6">
         <v>43282</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C51" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="F51">
+      <c r="D51" s="3"/>
+      <c r="E51" s="3"/>
+      <c r="F51" s="7">
         <v>2000</v>
       </c>
-      <c r="G51">
-        <v>2365.4699999999998</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A52" s="1">
+      <c r="G51" s="8">
+        <v>2365.47</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18.75">
+      <c r="A52" s="6">
         <v>43283</v>
       </c>
-      <c r="B52" s="1">
+      <c r="B52" s="6">
         <v>43283</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C52" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="E52">
+      <c r="D52" s="3"/>
+      <c r="E52" s="7">
         <v>1912</v>
       </c>
-      <c r="G52">
+      <c r="F52" s="4"/>
+      <c r="G52" s="8">
         <v>453.47</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A53" s="1">
+    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="18.75">
+      <c r="A53" s="6">
         <v>43284</v>
       </c>
-      <c r="B53" s="1">
+      <c r="B53" s="6">
         <v>43284</v>
       </c>
-      <c r="C53" t="s">
+      <c r="C53" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="E53">
+      <c r="D53" s="3"/>
+      <c r="E53" s="7">
         <v>75</v>
       </c>
-      <c r="G53">
+      <c r="F53" s="4"/>
+      <c r="G53" s="8">
         <v>378.47</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A54" s="1">
+    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="18.75">
+      <c r="A54" s="6">
         <v>43286</v>
       </c>
-      <c r="B54" s="1">
+      <c r="B54" s="6">
         <v>43286</v>
       </c>
-      <c r="C54" t="s">
+      <c r="C54" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="F54">
+      <c r="D54" s="3"/>
+      <c r="E54" s="3"/>
+      <c r="F54" s="7">
         <v>6000</v>
       </c>
-      <c r="G54">
+      <c r="G54" s="8">
         <v>6378.47</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A55" s="1">
+    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="18.75">
+      <c r="A55" s="6">
         <v>43286</v>
       </c>
-      <c r="B55" s="1">
+      <c r="B55" s="6">
         <v>43286</v>
       </c>
-      <c r="C55" t="s">
+      <c r="C55" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="E55">
+      <c r="D55" s="3"/>
+      <c r="E55" s="7">
         <v>4708</v>
       </c>
-      <c r="G55">
+      <c r="F55" s="4"/>
+      <c r="G55" s="8">
         <v>1670.47</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A56" s="1">
+    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="18.75">
+      <c r="A56" s="6">
         <v>43287</v>
       </c>
-      <c r="B56" s="1">
+      <c r="B56" s="6">
         <v>43287</v>
       </c>
-      <c r="C56" t="s">
+      <c r="C56" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="E56">
+      <c r="D56" s="3"/>
+      <c r="E56" s="8">
         <v>473.56</v>
       </c>
-      <c r="G56">
-        <v>1196.9100000000001</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A57" s="1">
+      <c r="F56" s="4"/>
+      <c r="G56" s="8">
+        <v>1196.91</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="18.75">
+      <c r="A57" s="6">
         <v>43288</v>
       </c>
-      <c r="B57" s="1">
+      <c r="B57" s="6">
         <v>43288</v>
       </c>
-      <c r="C57" t="s">
+      <c r="C57" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="E57">
+      <c r="D57" s="3"/>
+      <c r="E57" s="7">
         <v>285</v>
       </c>
-      <c r="G57">
+      <c r="F57" s="4"/>
+      <c r="G57" s="8">
         <v>911.91</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A58" s="1">
+    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="18.75">
+      <c r="A58" s="6">
         <v>43288</v>
       </c>
-      <c r="B58" s="1">
+      <c r="B58" s="6">
         <v>43288</v>
       </c>
-      <c r="C58" t="s">
+      <c r="C58" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="E58">
+      <c r="D58" s="3"/>
+      <c r="E58" s="7">
         <v>199</v>
       </c>
-      <c r="G58">
+      <c r="F58" s="4"/>
+      <c r="G58" s="8">
         <v>712.91</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A59" s="1">
+    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="18.75">
+      <c r="A59" s="6">
         <v>43289</v>
       </c>
-      <c r="B59" s="1">
+      <c r="B59" s="6">
         <v>43289</v>
       </c>
-      <c r="C59" t="s">
+      <c r="C59" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="E59">
+      <c r="D59" s="3"/>
+      <c r="E59" s="7">
         <v>398</v>
       </c>
-      <c r="G59">
-        <v>314.91000000000003</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A60" s="1">
+      <c r="F59" s="4"/>
+      <c r="G59" s="8">
+        <v>314.91</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="18.75">
+      <c r="A60" s="6">
         <v>43294</v>
       </c>
-      <c r="B60" s="1">
+      <c r="B60" s="6">
         <v>43294</v>
       </c>
-      <c r="C60" t="s">
+      <c r="C60" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="E60">
+      <c r="D60" s="3"/>
+      <c r="E60" s="7">
         <v>75</v>
       </c>
-      <c r="G60">
+      <c r="F60" s="4"/>
+      <c r="G60" s="8">
         <v>239.91</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A61" s="1">
+    <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="18.75">
+      <c r="A61" s="6">
         <v>43294</v>
       </c>
-      <c r="B61" s="1">
+      <c r="B61" s="6">
         <v>43294</v>
       </c>
-      <c r="C61" t="s">
+      <c r="C61" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="E61">
+      <c r="D61" s="3"/>
+      <c r="E61" s="7">
         <v>229</v>
       </c>
-      <c r="G61">
+      <c r="F61" s="4"/>
+      <c r="G61" s="8">
         <v>10.91</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A62" s="1">
+    <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="18.75">
+      <c r="A62" s="6">
         <v>43302</v>
       </c>
-      <c r="B62" s="1">
+      <c r="B62" s="6">
         <v>43302</v>
       </c>
-      <c r="C62" t="s">
+      <c r="C62" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="F62">
+      <c r="D62" s="3"/>
+      <c r="E62" s="3"/>
+      <c r="F62" s="8">
         <v>234.41</v>
       </c>
-      <c r="G62">
+      <c r="G62" s="8">
         <v>245.32</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A63" s="1">
+    <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="18.75">
+      <c r="A63" s="6">
         <v>43305</v>
       </c>
-      <c r="B63" s="1">
+      <c r="B63" s="6">
         <v>43305</v>
       </c>
-      <c r="C63" t="s">
+      <c r="C63" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="E63">
+      <c r="D63" s="3"/>
+      <c r="E63" s="7">
         <v>100</v>
       </c>
-      <c r="G63">
+      <c r="F63" s="4"/>
+      <c r="G63" s="8">
         <v>145.32</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A64" s="1">
+    <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="18.75">
+      <c r="A64" s="6">
         <v>43305</v>
       </c>
-      <c r="B64" s="1">
+      <c r="B64" s="6">
         <v>43305</v>
       </c>
-      <c r="C64" t="s">
+      <c r="C64" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="E64">
+      <c r="D64" s="3"/>
+      <c r="E64" s="7">
         <v>100</v>
       </c>
-      <c r="G64">
+      <c r="F64" s="4"/>
+      <c r="G64" s="8">
         <v>45.32</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A65" s="1">
+    <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="18.75">
+      <c r="A65" s="6">
         <v>43314</v>
       </c>
-      <c r="B65" s="1">
+      <c r="B65" s="6">
         <v>43314</v>
       </c>
-      <c r="C65" t="s">
+      <c r="C65" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="F65">
+      <c r="D65" s="3"/>
+      <c r="E65" s="3"/>
+      <c r="F65" s="7">
         <v>2000</v>
       </c>
-      <c r="G65">
+      <c r="G65" s="8">
         <v>2045.32</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A66" s="1">
+    <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="18.75">
+      <c r="A66" s="6">
         <v>43318</v>
       </c>
-      <c r="B66" s="1">
+      <c r="B66" s="6">
         <v>43318</v>
       </c>
-      <c r="C66" t="s">
+      <c r="C66" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="E66">
+      <c r="D66" s="3"/>
+      <c r="E66" s="7">
         <v>500</v>
       </c>
-      <c r="G66">
+      <c r="F66" s="4"/>
+      <c r="G66" s="8">
         <v>1545.32</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A67" s="1">
+    <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="18.75">
+      <c r="A67" s="6">
         <v>43319</v>
       </c>
-      <c r="B67" s="1">
+      <c r="B67" s="6">
         <v>43319</v>
       </c>
-      <c r="C67" t="s">
+      <c r="C67" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="F67">
+      <c r="D67" s="3"/>
+      <c r="E67" s="3"/>
+      <c r="F67" s="7">
         <v>1000</v>
       </c>
-      <c r="G67">
-        <v>2545.3200000000002</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A68" s="1">
+      <c r="G67" s="8">
+        <v>2545.32</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="18.75">
+      <c r="A68" s="6">
         <v>43320</v>
       </c>
-      <c r="B68" s="1">
+      <c r="B68" s="6">
         <v>43320</v>
       </c>
-      <c r="C68" t="s">
+      <c r="C68" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="E68">
+      <c r="D68" s="3"/>
+      <c r="E68" s="7">
         <v>2362</v>
       </c>
-      <c r="G68">
+      <c r="F68" s="4"/>
+      <c r="G68" s="8">
         <v>183.32</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A69" s="1">
+    <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="18.75">
+      <c r="A69" s="6">
         <v>43325</v>
       </c>
-      <c r="B69" s="1">
+      <c r="B69" s="6">
         <v>43325</v>
       </c>
-      <c r="C69" t="s">
+      <c r="C69" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="E69">
+      <c r="D69" s="3"/>
+      <c r="E69" s="7">
         <v>100</v>
       </c>
-      <c r="G69">
+      <c r="F69" s="4"/>
+      <c r="G69" s="8">
         <v>83.32</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A70" s="1">
+    <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="18.75">
+      <c r="A70" s="6">
         <v>43327</v>
       </c>
-      <c r="B70" s="1">
+      <c r="B70" s="6">
         <v>43327</v>
       </c>
-      <c r="C70" t="s">
+      <c r="C70" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="E70">
+      <c r="D70" s="3"/>
+      <c r="E70" s="7">
         <v>75</v>
       </c>
-      <c r="G70">
+      <c r="F70" s="4"/>
+      <c r="G70" s="8">
         <v>8.32</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A71" s="1">
+    <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="18.75">
+      <c r="A71" s="6">
         <v>43329</v>
       </c>
-      <c r="B71" s="1">
+      <c r="B71" s="6">
         <v>43329</v>
       </c>
-      <c r="C71" t="s">
+      <c r="C71" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="E71">
+      <c r="D71" s="3"/>
+      <c r="E71" s="7">
         <v>3</v>
       </c>
-      <c r="G71">
+      <c r="F71" s="4"/>
+      <c r="G71" s="8">
         <v>5.32</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A72" s="1">
+    <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="18.75">
+      <c r="A72" s="6">
         <v>43343</v>
       </c>
-      <c r="B72" s="1">
+      <c r="B72" s="6">
         <v>43343</v>
       </c>
-      <c r="C72" t="s">
+      <c r="C72" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="F72">
+      <c r="D72" s="3"/>
+      <c r="E72" s="3"/>
+      <c r="F72" s="7">
         <v>1</v>
       </c>
-      <c r="G72">
+      <c r="G72" s="8">
         <v>6.32</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A73" s="1">
+    <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="18.75">
+      <c r="A73" s="6">
         <v>43343</v>
       </c>
-      <c r="B73" s="1">
+      <c r="B73" s="6">
         <v>43343</v>
       </c>
-      <c r="C73" t="s">
+      <c r="C73" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="F73">
+      <c r="D73" s="3"/>
+      <c r="E73" s="3"/>
+      <c r="F73" s="7">
         <v>4500</v>
       </c>
-      <c r="G73">
+      <c r="G73" s="8">
         <v>4506.32</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A74" s="1">
+    <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="18.75">
+      <c r="A74" s="6">
         <v>43343</v>
       </c>
-      <c r="B74" s="1">
+      <c r="B74" s="6">
         <v>43343</v>
       </c>
-      <c r="C74" t="s">
+      <c r="C74" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="E74">
+      <c r="D74" s="3"/>
+      <c r="E74" s="7">
         <v>500</v>
       </c>
-      <c r="G74">
+      <c r="F74" s="4"/>
+      <c r="G74" s="8">
         <v>4006.32</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A75" s="1">
+    <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="18.75">
+      <c r="A75" s="6">
         <v>43344</v>
       </c>
-      <c r="B75" s="1">
+      <c r="B75" s="6">
         <v>43344</v>
       </c>
-      <c r="C75" t="s">
+      <c r="C75" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="E75">
+      <c r="D75" s="3"/>
+      <c r="E75" s="7">
         <v>75</v>
       </c>
-      <c r="G75">
+      <c r="F75" s="4"/>
+      <c r="G75" s="8">
         <v>3931.32</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A76" s="1">
+    <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="18.75">
+      <c r="A76" s="6">
         <v>43344</v>
       </c>
-      <c r="B76" s="1">
+      <c r="B76" s="6">
         <v>43344</v>
       </c>
-      <c r="C76" t="s">
+      <c r="C76" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="E76">
+      <c r="D76" s="3"/>
+      <c r="E76" s="7">
         <v>500</v>
       </c>
-      <c r="G76">
+      <c r="F76" s="4"/>
+      <c r="G76" s="8">
         <v>3431.32</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A77" s="1">
+    <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="18.75">
+      <c r="A77" s="6">
         <v>43344</v>
       </c>
-      <c r="B77" s="1">
+      <c r="B77" s="6">
         <v>43344</v>
       </c>
-      <c r="C77" t="s">
+      <c r="C77" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="E77">
+      <c r="D77" s="3"/>
+      <c r="E77" s="7">
         <v>285</v>
       </c>
-      <c r="G77">
+      <c r="F77" s="4"/>
+      <c r="G77" s="8">
         <v>3146.32</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A78" s="1">
+    <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="18.75">
+      <c r="A78" s="6">
         <v>43345</v>
       </c>
-      <c r="B78" s="1">
+      <c r="B78" s="6">
         <v>43345</v>
       </c>
-      <c r="C78" t="s">
+      <c r="C78" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="E78">
+      <c r="D78" s="3"/>
+      <c r="E78" s="7">
         <v>500</v>
       </c>
-      <c r="G78">
+      <c r="F78" s="4"/>
+      <c r="G78" s="8">
         <v>2646.32</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A79" s="1">
+    <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="18.75">
+      <c r="A79" s="6">
         <v>43346</v>
       </c>
-      <c r="B79" s="1">
+      <c r="B79" s="6">
         <v>43346</v>
       </c>
-      <c r="C79" t="s">
+      <c r="C79" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="E79">
+      <c r="D79" s="3"/>
+      <c r="E79" s="7">
         <v>285</v>
       </c>
-      <c r="G79">
-        <v>2361.3200000000002</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A80" s="1">
+      <c r="F79" s="4"/>
+      <c r="G79" s="8">
+        <v>2361.32</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="18.75">
+      <c r="A80" s="6">
         <v>43346</v>
       </c>
-      <c r="B80" s="1">
+      <c r="B80" s="6">
         <v>43346</v>
       </c>
-      <c r="C80" t="s">
+      <c r="C80" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="E80">
+      <c r="D80" s="3"/>
+      <c r="E80" s="7">
         <v>1912</v>
       </c>
-      <c r="G80">
+      <c r="F80" s="4"/>
+      <c r="G80" s="8">
         <v>449.32</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A81" s="1">
+    <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="18.75">
+      <c r="A81" s="6">
         <v>43347</v>
       </c>
-      <c r="B81" s="1">
+      <c r="B81" s="6">
         <v>43347</v>
       </c>
-      <c r="C81" t="s">
+      <c r="C81" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="E81">
+      <c r="D81" s="3"/>
+      <c r="E81" s="7">
         <v>285</v>
       </c>
-      <c r="G81">
+      <c r="F81" s="4"/>
+      <c r="G81" s="8">
         <v>164.32</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A82" s="1">
+    <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="18.75">
+      <c r="A82" s="6">
         <v>43348</v>
       </c>
-      <c r="B82" s="1">
+      <c r="B82" s="6">
         <v>43348</v>
       </c>
-      <c r="C82" t="s">
+      <c r="C82" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="F82">
+      <c r="D82" s="3"/>
+      <c r="E82" s="3"/>
+      <c r="F82" s="8">
         <v>268.63</v>
       </c>
-      <c r="G82">
+      <c r="G82" s="8">
         <v>432.95</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A83" s="1">
+    <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="18.75">
+      <c r="A83" s="6">
         <v>43348</v>
       </c>
-      <c r="B83" s="1">
+      <c r="B83" s="6">
         <v>43348</v>
       </c>
-      <c r="C83" t="s">
+      <c r="C83" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="E83">
+      <c r="D83" s="3"/>
+      <c r="E83" s="7">
         <v>285</v>
       </c>
-      <c r="G83">
-        <v>147.94999999999999</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A84" s="1">
+      <c r="F83" s="4"/>
+      <c r="G83" s="8">
+        <v>147.95</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="18.75">
+      <c r="A84" s="6">
         <v>43348</v>
       </c>
-      <c r="B84" s="1">
+      <c r="B84" s="6">
         <v>43348</v>
       </c>
-      <c r="C84" t="s">
+      <c r="C84" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="F84">
+      <c r="D84" s="3"/>
+      <c r="E84" s="3"/>
+      <c r="F84" s="7">
         <v>285</v>
       </c>
-      <c r="G84">
+      <c r="G84" s="8">
         <v>432.95</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A85" s="1">
+    <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="18.75">
+      <c r="A85" s="6">
         <v>43348</v>
       </c>
-      <c r="B85" s="1">
+      <c r="B85" s="6">
         <v>43348</v>
       </c>
-      <c r="C85" t="s">
+      <c r="C85" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="E85">
+      <c r="D85" s="3"/>
+      <c r="E85" s="7">
         <v>285</v>
       </c>
-      <c r="G85">
-        <v>147.94999999999999</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A86" s="1">
+      <c r="F85" s="4"/>
+      <c r="G85" s="8">
+        <v>147.95</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="18.75">
+      <c r="A86" s="6">
         <v>43350</v>
       </c>
-      <c r="B86" s="1">
+      <c r="B86" s="6">
         <v>43350</v>
       </c>
-      <c r="C86" t="s">
+      <c r="C86" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="E86">
+      <c r="D86" s="3"/>
+      <c r="E86" s="7">
         <v>100</v>
       </c>
-      <c r="G86">
+      <c r="F86" s="4"/>
+      <c r="G86" s="8">
         <v>47.95</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A87" s="1">
+    <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="18.75">
+      <c r="A87" s="6">
         <v>43355</v>
       </c>
-      <c r="B87" s="1">
+      <c r="B87" s="6">
         <v>43355</v>
       </c>
-      <c r="C87" t="s">
+      <c r="C87" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="F87">
+      <c r="D87" s="3"/>
+      <c r="E87" s="3"/>
+      <c r="F87" s="7">
         <v>1</v>
       </c>
-      <c r="G87">
+      <c r="G87" s="8">
         <v>48.95</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A88" s="1">
+    <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="18.75">
+      <c r="A88" s="6">
         <v>43355</v>
       </c>
-      <c r="B88" s="1">
+      <c r="B88" s="6">
         <v>43355</v>
       </c>
-      <c r="C88" t="s">
+      <c r="C88" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="F88">
+      <c r="D88" s="3"/>
+      <c r="E88" s="3"/>
+      <c r="F88" s="7">
         <v>1</v>
       </c>
-      <c r="G88">
+      <c r="G88" s="8">
         <v>49.95</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A89" s="1">
+    <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="18.75">
+      <c r="A89" s="6">
         <v>43355</v>
       </c>
-      <c r="B89" s="1">
+      <c r="B89" s="6">
         <v>43355</v>
       </c>
-      <c r="C89" t="s">
+      <c r="C89" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="F89">
+      <c r="D89" s="3"/>
+      <c r="E89" s="3"/>
+      <c r="F89" s="7">
         <v>200</v>
       </c>
-      <c r="G89">
+      <c r="G89" s="8">
         <v>249.95</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A90" s="1">
+    <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="18.75">
+      <c r="A90" s="6">
         <v>43355</v>
       </c>
-      <c r="B90" s="1">
+      <c r="B90" s="6">
         <v>43355</v>
       </c>
-      <c r="C90" t="s">
+      <c r="C90" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="F90">
+      <c r="D90" s="3"/>
+      <c r="E90" s="3"/>
+      <c r="F90" s="7">
         <v>5000</v>
       </c>
-      <c r="G90">
+      <c r="G90" s="8">
         <v>5249.95</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A91" s="1">
+    <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="18.75">
+      <c r="A91" s="6">
         <v>43355</v>
       </c>
-      <c r="B91" s="1">
+      <c r="B91" s="6">
         <v>43355</v>
       </c>
-      <c r="C91" t="s">
+      <c r="C91" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="E91">
-        <v>5127.8900000000003</v>
-      </c>
-      <c r="G91">
+      <c r="D91" s="3"/>
+      <c r="E91" s="8">
+        <v>5127.89</v>
+      </c>
+      <c r="F91" s="4"/>
+      <c r="G91" s="8">
         <v>122.06</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A92" s="1">
+    <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="18.75">
+      <c r="A92" s="6">
         <v>43356</v>
       </c>
-      <c r="B92" s="1">
+      <c r="B92" s="6">
         <v>43356</v>
       </c>
-      <c r="C92" t="s">
+      <c r="C92" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="F92">
+      <c r="D92" s="3"/>
+      <c r="E92" s="3"/>
+      <c r="F92" s="7">
         <v>4493</v>
       </c>
-      <c r="G92">
-        <v>4615.0600000000004</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A93" s="1">
+      <c r="G92" s="8">
+        <v>4615.06</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="18.75">
+      <c r="A93" s="6">
         <v>43356</v>
       </c>
-      <c r="B93" s="1">
+      <c r="B93" s="6">
         <v>43356</v>
       </c>
-      <c r="C93" t="s">
+      <c r="C93" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="E93">
+      <c r="D93" s="3"/>
+      <c r="E93" s="7">
         <v>4500</v>
       </c>
-      <c r="G93">
+      <c r="F93" s="4"/>
+      <c r="G93" s="8">
         <v>115.06</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A94" s="1">
+    <row x14ac:dyDescent="0.25" r="94" customHeight="1" ht="18.75">
+      <c r="A94" s="6">
         <v>43356</v>
       </c>
-      <c r="B94" s="1">
+      <c r="B94" s="6">
         <v>43356</v>
       </c>
-      <c r="C94" t="s">
+      <c r="C94" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="E94">
+      <c r="D94" s="3"/>
+      <c r="E94" s="7">
         <v>75</v>
       </c>
-      <c r="G94">
+      <c r="F94" s="4"/>
+      <c r="G94" s="8">
         <v>40.06</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A95" s="1">
+    <row x14ac:dyDescent="0.25" r="95" customHeight="1" ht="18.75">
+      <c r="A95" s="6">
         <v>43361</v>
       </c>
-      <c r="B95" s="1">
+      <c r="B95" s="6">
         <v>43361</v>
       </c>
-      <c r="C95" t="s">
+      <c r="C95" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="F95">
+      <c r="D95" s="3"/>
+      <c r="E95" s="3"/>
+      <c r="F95" s="7">
         <v>9000</v>
       </c>
-      <c r="G95">
+      <c r="G95" s="8">
         <v>9040.06</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A96" s="1">
+    <row x14ac:dyDescent="0.25" r="96" customHeight="1" ht="18.75">
+      <c r="A96" s="6">
         <v>43361</v>
       </c>
-      <c r="B96" s="1">
+      <c r="B96" s="6">
         <v>43361</v>
       </c>
-      <c r="C96" t="s">
+      <c r="C96" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="E96">
+      <c r="D96" s="3"/>
+      <c r="E96" s="7">
         <v>8320</v>
       </c>
-      <c r="G96">
+      <c r="F96" s="4"/>
+      <c r="G96" s="8">
         <v>720.06</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A97" s="1">
+    <row x14ac:dyDescent="0.25" r="97" customHeight="1" ht="18.75">
+      <c r="A97" s="6">
         <v>43361</v>
       </c>
-      <c r="B97" s="1">
+      <c r="B97" s="6">
         <v>43361</v>
       </c>
-      <c r="C97" t="s">
+      <c r="C97" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="E97">
+      <c r="D97" s="3"/>
+      <c r="E97" s="7">
         <v>500</v>
       </c>
-      <c r="G97">
+      <c r="F97" s="4"/>
+      <c r="G97" s="8">
         <v>220.06</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A98" s="1">
+    <row x14ac:dyDescent="0.25" r="98" customHeight="1" ht="18.75">
+      <c r="A98" s="6">
         <v>43368</v>
       </c>
-      <c r="B98" s="1">
+      <c r="B98" s="6">
         <v>43368</v>
       </c>
-      <c r="C98" t="s">
+      <c r="C98" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="E98">
+      <c r="D98" s="3"/>
+      <c r="E98" s="7">
         <v>200</v>
       </c>
-      <c r="G98">
-        <v>20.059999999999999</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A99" s="1">
+      <c r="F98" s="4"/>
+      <c r="G98" s="8">
+        <v>20.06</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="99" customHeight="1" ht="18.75">
+      <c r="A99" s="6">
         <v>43373</v>
       </c>
-      <c r="B99" s="1">
+      <c r="B99" s="6">
         <v>43373</v>
       </c>
-      <c r="C99" t="s">
+      <c r="C99" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="F99">
+      <c r="D99" s="3"/>
+      <c r="E99" s="3"/>
+      <c r="F99" s="7">
         <v>7198</v>
       </c>
-      <c r="G99">
+      <c r="G99" s="8">
         <v>7218.06</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A100" s="1">
+    <row x14ac:dyDescent="0.25" r="100" customHeight="1" ht="18.75">
+      <c r="A100" s="6">
         <v>43373</v>
       </c>
-      <c r="B100" s="1">
+      <c r="B100" s="6">
         <v>43373</v>
       </c>
-      <c r="C100" t="s">
+      <c r="C100" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="F100">
+      <c r="D100" s="3"/>
+      <c r="E100" s="3"/>
+      <c r="F100" s="7">
         <v>5</v>
       </c>
-      <c r="G100">
+      <c r="G100" s="8">
         <v>7223.06</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A101" s="1">
+    <row x14ac:dyDescent="0.25" r="101" customHeight="1" ht="18.75">
+      <c r="A101" s="6">
         <v>43374</v>
       </c>
-      <c r="B101" s="1">
+      <c r="B101" s="6">
         <v>43374</v>
       </c>
-      <c r="C101" t="s">
+      <c r="C101" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="E101">
+      <c r="D101" s="3"/>
+      <c r="E101" s="7">
         <v>2000</v>
       </c>
-      <c r="G101">
-        <v>5223.0600000000004</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A102" s="1">
+      <c r="F101" s="4"/>
+      <c r="G101" s="8">
+        <v>5223.06</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="102" customHeight="1" ht="18.75">
+      <c r="A102" s="6">
         <v>43375</v>
       </c>
-      <c r="B102" s="1">
+      <c r="B102" s="6">
         <v>43375</v>
       </c>
-      <c r="C102" t="s">
+      <c r="C102" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="E102">
+      <c r="D102" s="3"/>
+      <c r="E102" s="7">
         <v>1000</v>
       </c>
-      <c r="G102">
-        <v>4223.0600000000004</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A103" s="1">
+      <c r="F102" s="4"/>
+      <c r="G102" s="8">
+        <v>4223.06</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="103" customHeight="1" ht="18.75">
+      <c r="A103" s="6">
         <v>43375</v>
       </c>
-      <c r="B103" s="1">
+      <c r="B103" s="6">
         <v>43375</v>
       </c>
-      <c r="C103" t="s">
+      <c r="C103" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="E103">
+      <c r="D103" s="3"/>
+      <c r="E103" s="7">
         <v>830</v>
       </c>
-      <c r="G103">
+      <c r="F103" s="4"/>
+      <c r="G103" s="8">
         <v>3393.06</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A104" s="1">
+    <row x14ac:dyDescent="0.25" r="104" customHeight="1" ht="18.75">
+      <c r="A104" s="6">
         <v>43375</v>
       </c>
-      <c r="B104" s="1">
+      <c r="B104" s="6">
         <v>43375</v>
       </c>
-      <c r="C104" t="s">
+      <c r="C104" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="E104">
+      <c r="D104" s="3"/>
+      <c r="E104" s="7">
         <v>500</v>
       </c>
-      <c r="G104">
+      <c r="F104" s="4"/>
+      <c r="G104" s="8">
         <v>2893.06</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A105" s="1">
+    <row x14ac:dyDescent="0.25" r="105" customHeight="1" ht="18.75">
+      <c r="A105" s="6">
         <v>43376</v>
       </c>
-      <c r="B105" s="1">
+      <c r="B105" s="6">
         <v>43376</v>
       </c>
-      <c r="C105" t="s">
+      <c r="C105" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="E105">
+      <c r="D105" s="3"/>
+      <c r="E105" s="7">
         <v>1584</v>
       </c>
-      <c r="G105">
+      <c r="F105" s="4"/>
+      <c r="G105" s="8">
         <v>1309.06</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A106" s="1">
+    <row x14ac:dyDescent="0.25" r="106" customHeight="1" ht="18.75">
+      <c r="A106" s="6">
         <v>43376</v>
       </c>
-      <c r="B106" s="1">
+      <c r="B106" s="6">
         <v>43376</v>
       </c>
-      <c r="C106" t="s">
+      <c r="C106" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="E106">
+      <c r="D106" s="3"/>
+      <c r="E106" s="7">
         <v>500</v>
       </c>
-      <c r="G106">
+      <c r="F106" s="4"/>
+      <c r="G106" s="8">
         <v>809.06</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A107" s="1">
+    <row x14ac:dyDescent="0.25" r="107" customHeight="1" ht="18.75">
+      <c r="A107" s="6">
         <v>43376</v>
       </c>
-      <c r="B107" s="1">
+      <c r="B107" s="6">
         <v>43376</v>
       </c>
-      <c r="C107" t="s">
+      <c r="C107" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="E107">
+      <c r="D107" s="3"/>
+      <c r="E107" s="7">
         <v>500</v>
       </c>
-      <c r="G107">
+      <c r="F107" s="4"/>
+      <c r="G107" s="8">
         <v>309.06</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A108" s="1">
+    <row x14ac:dyDescent="0.25" r="108" customHeight="1" ht="18.75">
+      <c r="A108" s="6">
         <v>43377</v>
       </c>
-      <c r="B108" s="1">
+      <c r="B108" s="6">
         <v>43377</v>
       </c>
-      <c r="C108" t="s">
+      <c r="C108" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="E108">
+      <c r="D108" s="3"/>
+      <c r="E108" s="7">
         <v>200</v>
       </c>
-      <c r="G108">
+      <c r="F108" s="4"/>
+      <c r="G108" s="8">
         <v>109.06</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A109" s="1">
+    <row x14ac:dyDescent="0.25" r="109" customHeight="1" ht="18.75">
+      <c r="A109" s="6">
         <v>43378</v>
       </c>
-      <c r="B109" s="1">
+      <c r="B109" s="6">
         <v>43378</v>
       </c>
-      <c r="C109" t="s">
+      <c r="C109" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="E109">
+      <c r="D109" s="3"/>
+      <c r="E109" s="7">
         <v>100</v>
       </c>
-      <c r="G109">
+      <c r="F109" s="4"/>
+      <c r="G109" s="8">
         <v>9.06</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A110" s="1">
+    <row x14ac:dyDescent="0.25" r="110" customHeight="1" ht="18.75">
+      <c r="A110" s="6">
         <v>43383</v>
       </c>
-      <c r="B110" s="1">
+      <c r="B110" s="6">
         <v>43383</v>
       </c>
-      <c r="C110" t="s">
+      <c r="C110" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="F110">
+      <c r="D110" s="3"/>
+      <c r="E110" s="3"/>
+      <c r="F110" s="8">
         <v>350.89</v>
       </c>
-      <c r="G110">
+      <c r="G110" s="8">
         <v>359.95</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A111" s="1">
+    <row x14ac:dyDescent="0.25" r="111" customHeight="1" ht="18.75">
+      <c r="A111" s="6">
         <v>43388</v>
       </c>
-      <c r="B111" s="1">
+      <c r="B111" s="6">
         <v>43388</v>
       </c>
-      <c r="C111" t="s">
+      <c r="C111" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="F111">
+      <c r="D111" s="3"/>
+      <c r="E111" s="3"/>
+      <c r="F111" s="7">
         <v>3000</v>
       </c>
-      <c r="G111">
+      <c r="G111" s="8">
         <v>3359.95</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A112" s="1">
+    <row x14ac:dyDescent="0.25" r="112" customHeight="1" ht="18.75">
+      <c r="A112" s="6">
         <v>43388</v>
       </c>
-      <c r="B112" s="1">
+      <c r="B112" s="6">
         <v>43388</v>
       </c>
-      <c r="C112" t="s">
+      <c r="C112" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="F112">
+      <c r="D112" s="3"/>
+      <c r="E112" s="3"/>
+      <c r="F112" s="7">
         <v>5000</v>
       </c>
-      <c r="G112">
-        <v>8359.9500000000007</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A113" s="1">
+      <c r="G112" s="8">
+        <v>8359.95</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="113" customHeight="1" ht="18.75">
+      <c r="A113" s="6">
         <v>43388</v>
       </c>
-      <c r="B113" s="1">
+      <c r="B113" s="6">
         <v>43388</v>
       </c>
-      <c r="C113" t="s">
+      <c r="C113" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="E113">
-        <v>8204.2099999999991</v>
-      </c>
-      <c r="G113">
+      <c r="D113" s="3"/>
+      <c r="E113" s="8">
+        <v>8204.21</v>
+      </c>
+      <c r="F113" s="4"/>
+      <c r="G113" s="8">
         <v>155.74</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A114" s="1">
+    <row x14ac:dyDescent="0.25" r="114" customHeight="1" ht="18.75">
+      <c r="A114" s="6">
         <v>43389</v>
       </c>
-      <c r="B114" s="1">
+      <c r="B114" s="6">
         <v>43389</v>
       </c>
-      <c r="C114" t="s">
+      <c r="C114" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="F114">
+      <c r="D114" s="3"/>
+      <c r="E114" s="3"/>
+      <c r="F114" s="7">
         <v>5500</v>
       </c>
-      <c r="G114">
+      <c r="G114" s="8">
         <v>5655.74</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A115" s="1">
+    <row x14ac:dyDescent="0.25" r="115" customHeight="1" ht="18.75">
+      <c r="A115" s="6">
         <v>43390</v>
       </c>
-      <c r="B115" s="1">
+      <c r="B115" s="6">
         <v>43390</v>
       </c>
-      <c r="C115" t="s">
+      <c r="C115" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="E115">
+      <c r="D115" s="3"/>
+      <c r="E115" s="7">
         <v>2000</v>
       </c>
-      <c r="G115">
+      <c r="F115" s="4"/>
+      <c r="G115" s="8">
         <v>3655.74</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A116" s="1">
+    <row x14ac:dyDescent="0.25" r="116" customHeight="1" ht="18.75">
+      <c r="A116" s="6">
         <v>43393</v>
       </c>
-      <c r="B116" s="1">
+      <c r="B116" s="6">
         <v>43393</v>
       </c>
-      <c r="C116" t="s">
+      <c r="C116" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="E116">
+      <c r="D116" s="3"/>
+      <c r="E116" s="7">
         <v>20</v>
       </c>
-      <c r="G116">
+      <c r="F116" s="4"/>
+      <c r="G116" s="8">
         <v>3635.74</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A117" s="1">
+    <row x14ac:dyDescent="0.25" r="117" customHeight="1" ht="18.75">
+      <c r="A117" s="6">
         <v>43393</v>
       </c>
-      <c r="B117" s="1">
+      <c r="B117" s="6">
         <v>43393</v>
       </c>
-      <c r="C117" t="s">
+      <c r="C117" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="E117">
+      <c r="D117" s="3"/>
+      <c r="E117" s="8">
         <v>1.8</v>
       </c>
-      <c r="G117">
+      <c r="F117" s="4"/>
+      <c r="G117" s="8">
         <v>3633.94</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A118" s="1">
+    <row x14ac:dyDescent="0.25" r="118" customHeight="1" ht="18.75">
+      <c r="A118" s="6">
         <v>43393</v>
       </c>
-      <c r="B118" s="1">
+      <c r="B118" s="6">
         <v>43393</v>
       </c>
-      <c r="C118" t="s">
+      <c r="C118" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="E118">
+      <c r="D118" s="3"/>
+      <c r="E118" s="8">
         <v>1.8</v>
       </c>
-      <c r="G118">
+      <c r="F118" s="4"/>
+      <c r="G118" s="8">
         <v>3632.14</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A119" s="1">
+    <row x14ac:dyDescent="0.25" r="119" customHeight="1" ht="18.75">
+      <c r="A119" s="6">
         <v>43393</v>
       </c>
-      <c r="B119" s="1">
+      <c r="B119" s="6">
         <v>43393</v>
       </c>
-      <c r="C119" t="s">
+      <c r="C119" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="E119">
+      <c r="D119" s="3"/>
+      <c r="E119" s="7">
         <v>750</v>
       </c>
-      <c r="G119">
+      <c r="F119" s="4"/>
+      <c r="G119" s="8">
         <v>2882.14</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A120" s="1">
+    <row x14ac:dyDescent="0.25" r="120" customHeight="1" ht="18.75">
+      <c r="A120" s="6">
         <v>43393</v>
       </c>
-      <c r="B120" s="1">
+      <c r="B120" s="6">
         <v>43393</v>
       </c>
-      <c r="C120" t="s">
+      <c r="C120" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="E120">
+      <c r="D120" s="3"/>
+      <c r="E120" s="7">
         <v>2800</v>
       </c>
-      <c r="G120">
+      <c r="F120" s="4"/>
+      <c r="G120" s="8">
         <v>82.14</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A121" s="1">
+    <row x14ac:dyDescent="0.25" r="121" customHeight="1" ht="18.75">
+      <c r="A121" s="6">
         <v>43393</v>
       </c>
-      <c r="B121" s="1">
+      <c r="B121" s="6">
         <v>43393</v>
       </c>
-      <c r="C121" t="s">
+      <c r="C121" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="E121">
+      <c r="D121" s="3"/>
+      <c r="E121" s="7">
         <v>20</v>
       </c>
-      <c r="G121">
+      <c r="F121" s="4"/>
+      <c r="G121" s="8">
         <v>62.14</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A122" s="1">
+    <row x14ac:dyDescent="0.25" r="122" customHeight="1" ht="18.75">
+      <c r="A122" s="6">
         <v>43393</v>
       </c>
-      <c r="B122" s="1">
+      <c r="B122" s="6">
         <v>43393</v>
       </c>
-      <c r="C122" t="s">
+      <c r="C122" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="E122">
+      <c r="D122" s="3"/>
+      <c r="E122" s="8">
         <v>1.8</v>
       </c>
-      <c r="G122">
+      <c r="F122" s="4"/>
+      <c r="G122" s="8">
         <v>60.34</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A123" s="1">
+    <row x14ac:dyDescent="0.25" r="123" customHeight="1" ht="18.75">
+      <c r="A123" s="6">
         <v>43393</v>
       </c>
-      <c r="B123" s="1">
+      <c r="B123" s="6">
         <v>43393</v>
       </c>
-      <c r="C123" t="s">
+      <c r="C123" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="E123">
+      <c r="D123" s="3"/>
+      <c r="E123" s="8">
         <v>1.8</v>
       </c>
-      <c r="G123">
+      <c r="F123" s="4"/>
+      <c r="G123" s="8">
         <v>58.54</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A124" s="1">
+    <row x14ac:dyDescent="0.25" r="124" customHeight="1" ht="18.75">
+      <c r="A124" s="6">
         <v>43397</v>
       </c>
-      <c r="B124" s="1">
+      <c r="B124" s="6">
         <v>43397</v>
       </c>
-      <c r="C124" t="s">
+      <c r="C124" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="E124">
+      <c r="D124" s="3"/>
+      <c r="E124" s="7">
         <v>20</v>
       </c>
-      <c r="G124">
+      <c r="F124" s="4"/>
+      <c r="G124" s="8">
         <v>38.54</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A125" s="1">
+    <row x14ac:dyDescent="0.25" r="125" customHeight="1" ht="18.75">
+      <c r="A125" s="6">
         <v>43397</v>
       </c>
-      <c r="B125" s="1">
+      <c r="B125" s="6">
         <v>43397</v>
       </c>
-      <c r="C125" t="s">
+      <c r="C125" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="E125">
+      <c r="D125" s="3"/>
+      <c r="E125" s="8">
         <v>1.8</v>
       </c>
-      <c r="G125">
+      <c r="F125" s="4"/>
+      <c r="G125" s="8">
         <v>36.74</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A126" s="1">
+    <row x14ac:dyDescent="0.25" r="126" customHeight="1" ht="18.75">
+      <c r="A126" s="6">
         <v>43397</v>
       </c>
-      <c r="B126" s="1">
+      <c r="B126" s="6">
         <v>43397</v>
       </c>
-      <c r="C126" t="s">
+      <c r="C126" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="E126">
+      <c r="D126" s="3"/>
+      <c r="E126" s="8">
         <v>1.8</v>
       </c>
-      <c r="G126">
+      <c r="F126" s="4"/>
+      <c r="G126" s="8">
         <v>34.94</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A127" s="1">
+    <row x14ac:dyDescent="0.25" r="127" customHeight="1" ht="18.75">
+      <c r="A127" s="6">
         <v>43397</v>
       </c>
-      <c r="B127" s="1">
+      <c r="B127" s="6">
         <v>43397</v>
       </c>
-      <c r="C127" t="s">
+      <c r="C127" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="E127">
+      <c r="D127" s="3"/>
+      <c r="E127" s="7">
         <v>20</v>
       </c>
-      <c r="G127">
+      <c r="F127" s="4"/>
+      <c r="G127" s="8">
         <v>14.94</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A128" s="1">
+    <row x14ac:dyDescent="0.25" r="128" customHeight="1" ht="18.75">
+      <c r="A128" s="6">
         <v>43397</v>
       </c>
-      <c r="B128" s="1">
+      <c r="B128" s="6">
         <v>43397</v>
       </c>
-      <c r="C128" t="s">
+      <c r="C128" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="E128">
+      <c r="D128" s="3"/>
+      <c r="E128" s="8">
         <v>1.8</v>
       </c>
-      <c r="G128">
+      <c r="F128" s="4"/>
+      <c r="G128" s="8">
         <v>13.14</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A129" s="1">
+    <row x14ac:dyDescent="0.25" r="129" customHeight="1" ht="18.75">
+      <c r="A129" s="6">
         <v>43397</v>
       </c>
-      <c r="B129" s="1">
+      <c r="B129" s="6">
         <v>43397</v>
       </c>
-      <c r="C129" t="s">
+      <c r="C129" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="E129">
+      <c r="D129" s="3"/>
+      <c r="E129" s="8">
         <v>1.8</v>
       </c>
-      <c r="G129">
+      <c r="F129" s="4"/>
+      <c r="G129" s="8">
         <v>11.34</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A130" s="1">
+    <row x14ac:dyDescent="0.25" r="130" customHeight="1" ht="18.75">
+      <c r="A130" s="6">
         <v>43403</v>
       </c>
-      <c r="B130" s="1">
+      <c r="B130" s="6">
         <v>43403</v>
       </c>
-      <c r="C130" t="s">
+      <c r="C130" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="F130">
+      <c r="D130" s="3"/>
+      <c r="E130" s="3"/>
+      <c r="F130" s="7">
         <v>47896</v>
       </c>
-      <c r="G130">
+      <c r="G130" s="8">
         <v>47907.34</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A131" s="1">
+    <row x14ac:dyDescent="0.25" r="131" customHeight="1" ht="18.75">
+      <c r="A131" s="6">
         <v>43403</v>
       </c>
-      <c r="B131" s="1">
+      <c r="B131" s="6">
         <v>43403</v>
       </c>
-      <c r="C131" t="s">
+      <c r="C131" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="F131">
+      <c r="D131" s="3"/>
+      <c r="E131" s="3"/>
+      <c r="F131" s="7">
         <v>7198</v>
       </c>
-      <c r="G131">
+      <c r="G131" s="8">
         <v>55105.34</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A132" s="1">
+    <row x14ac:dyDescent="0.25" r="132" customHeight="1" ht="18.75">
+      <c r="A132" s="6">
         <v>43405</v>
       </c>
-      <c r="B132" s="1">
+      <c r="B132" s="6">
         <v>43405</v>
       </c>
-      <c r="C132" t="s">
+      <c r="C132" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="E132">
+      <c r="D132" s="3"/>
+      <c r="E132" s="7">
         <v>7000</v>
       </c>
-      <c r="G132">
+      <c r="F132" s="4"/>
+      <c r="G132" s="8">
         <v>48105.34</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A133" s="1">
+    <row x14ac:dyDescent="0.25" r="133" customHeight="1" ht="18.75">
+      <c r="A133" s="6">
         <v>43405</v>
       </c>
-      <c r="B133" s="1">
+      <c r="B133" s="6">
         <v>43405</v>
       </c>
-      <c r="C133" t="s">
+      <c r="C133" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="E133">
+      <c r="D133" s="3"/>
+      <c r="E133" s="7">
         <v>179</v>
       </c>
-      <c r="G133">
+      <c r="F133" s="4"/>
+      <c r="G133" s="8">
         <v>47926.34</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A134" s="1">
+    <row x14ac:dyDescent="0.25" r="134" customHeight="1" ht="18.75">
+      <c r="A134" s="6">
         <v>43406</v>
       </c>
-      <c r="B134" s="1">
+      <c r="B134" s="6">
         <v>43406</v>
       </c>
-      <c r="C134" t="s">
+      <c r="C134" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="D134">
+      <c r="D134" s="7">
         <v>1</v>
       </c>
-      <c r="E134">
+      <c r="E134" s="7">
         <v>47800</v>
       </c>
-      <c r="G134">
+      <c r="F134" s="4"/>
+      <c r="G134" s="8">
         <v>126.34</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A135" s="1">
+    <row x14ac:dyDescent="0.25" r="135" customHeight="1" ht="18.75">
+      <c r="A135" s="6">
         <v>43408</v>
       </c>
-      <c r="B135" s="1">
+      <c r="B135" s="6">
         <v>43408</v>
       </c>
-      <c r="C135" t="s">
+      <c r="C135" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="E135">
+      <c r="D135" s="3"/>
+      <c r="E135" s="7">
         <v>100</v>
       </c>
-      <c r="G135">
+      <c r="F135" s="4"/>
+      <c r="G135" s="8">
         <v>26.34</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A136" s="1">
+    <row x14ac:dyDescent="0.25" r="136" customHeight="1" ht="18.75">
+      <c r="A136" s="6">
         <v>43411</v>
       </c>
-      <c r="B136" s="1">
+      <c r="B136" s="6">
         <v>43411</v>
       </c>
-      <c r="C136" t="s">
+      <c r="C136" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="F136">
+      <c r="D136" s="3"/>
+      <c r="E136" s="3"/>
+      <c r="F136" s="8">
         <v>408.9</v>
       </c>
-      <c r="G136">
+      <c r="G136" s="8">
         <v>435.24</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A137" s="1">
+    <row x14ac:dyDescent="0.25" r="137" customHeight="1" ht="18.75">
+      <c r="A137" s="6">
         <v>43418</v>
       </c>
-      <c r="B137" s="1">
+      <c r="B137" s="6">
         <v>43418</v>
       </c>
-      <c r="C137" t="s">
+      <c r="C137" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="E137">
+      <c r="D137" s="3"/>
+      <c r="E137" s="7">
         <v>400</v>
       </c>
-      <c r="G137">
+      <c r="F137" s="4"/>
+      <c r="G137" s="8">
         <v>35.24</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A138" s="1">
+    <row x14ac:dyDescent="0.25" r="138" customHeight="1" ht="18.75">
+      <c r="A138" s="6">
         <v>43441</v>
       </c>
-      <c r="B138" s="1">
+      <c r="B138" s="6">
         <v>43441</v>
       </c>
-      <c r="C138" t="s">
+      <c r="C138" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="E138">
+      <c r="D138" s="3"/>
+      <c r="E138" s="7">
         <v>10</v>
       </c>
-      <c r="G138">
+      <c r="F138" s="4"/>
+      <c r="G138" s="8">
         <v>25.24</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A139" s="1">
+    <row x14ac:dyDescent="0.25" r="139" customHeight="1" ht="18.75">
+      <c r="A139" s="6">
         <v>43444</v>
       </c>
-      <c r="B139" s="1">
+      <c r="B139" s="6">
         <v>43444</v>
       </c>
-      <c r="C139" t="s">
+      <c r="C139" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="F139">
+      <c r="D139" s="3"/>
+      <c r="E139" s="3"/>
+      <c r="F139" s="7">
         <v>1000</v>
       </c>
-      <c r="G139">
+      <c r="G139" s="8">
         <v>1025.24</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A140" s="1">
+    <row x14ac:dyDescent="0.25" r="140" customHeight="1" ht="18.75">
+      <c r="A140" s="6">
         <v>43444</v>
       </c>
-      <c r="B140" s="1">
+      <c r="B140" s="6">
         <v>43444</v>
       </c>
-      <c r="C140" t="s">
+      <c r="C140" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="F140">
+      <c r="D140" s="3"/>
+      <c r="E140" s="3"/>
+      <c r="F140" s="7">
         <v>3180</v>
       </c>
-      <c r="G140">
+      <c r="G140" s="8">
         <v>4205.24</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A141" s="1">
+    <row x14ac:dyDescent="0.25" r="141" customHeight="1" ht="18.75">
+      <c r="A141" s="6">
         <v>43445</v>
       </c>
-      <c r="B141" s="1">
+      <c r="B141" s="6">
         <v>43445</v>
       </c>
-      <c r="C141" t="s">
+      <c r="C141" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="E141">
+      <c r="D141" s="3"/>
+      <c r="E141" s="7">
         <v>100</v>
       </c>
-      <c r="G141">
+      <c r="F141" s="4"/>
+      <c r="G141" s="8">
         <v>4105.24</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A142" s="1">
+    <row x14ac:dyDescent="0.25" r="142" customHeight="1" ht="18.75">
+      <c r="A142" s="6">
         <v>43445</v>
       </c>
-      <c r="B142" s="1">
+      <c r="B142" s="6">
         <v>43445</v>
       </c>
-      <c r="C142" t="s">
+      <c r="C142" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="E142">
+      <c r="D142" s="3"/>
+      <c r="E142" s="7">
         <v>9</v>
       </c>
-      <c r="G142">
+      <c r="F142" s="4"/>
+      <c r="G142" s="8">
         <v>4096.24</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A143" s="1">
+    <row x14ac:dyDescent="0.25" r="143" customHeight="1" ht="18.75">
+      <c r="A143" s="6">
         <v>43445</v>
       </c>
-      <c r="B143" s="1">
+      <c r="B143" s="6">
         <v>43445</v>
       </c>
-      <c r="C143" t="s">
+      <c r="C143" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="E143">
+      <c r="D143" s="3"/>
+      <c r="E143" s="7">
         <v>9</v>
       </c>
-      <c r="G143">
+      <c r="F143" s="4"/>
+      <c r="G143" s="8">
         <v>4087.24</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A144" s="1">
+    <row x14ac:dyDescent="0.25" r="144" customHeight="1" ht="18.75">
+      <c r="A144" s="6">
         <v>43445</v>
       </c>
-      <c r="B144" s="1">
+      <c r="B144" s="6">
         <v>43445</v>
       </c>
-      <c r="C144" t="s">
+      <c r="C144" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="E144">
+      <c r="D144" s="3"/>
+      <c r="E144" s="7">
         <v>1000</v>
       </c>
-      <c r="G144">
+      <c r="F144" s="4"/>
+      <c r="G144" s="8">
         <v>3087.24</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A145" s="1">
+    <row x14ac:dyDescent="0.25" r="145" customHeight="1" ht="18.75">
+      <c r="A145" s="6">
         <v>43446</v>
       </c>
-      <c r="B145" s="1">
+      <c r="B145" s="6">
         <v>43446</v>
       </c>
-      <c r="C145" t="s">
+      <c r="C145" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="E145">
+      <c r="D145" s="3"/>
+      <c r="E145" s="7">
         <v>2000</v>
       </c>
-      <c r="G145">
+      <c r="F145" s="4"/>
+      <c r="G145" s="8">
         <v>1087.24</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A146" s="1">
+    <row x14ac:dyDescent="0.25" r="146" customHeight="1" ht="18.75">
+      <c r="A146" s="6">
         <v>43449</v>
       </c>
-      <c r="B146" s="1">
+      <c r="B146" s="6">
         <v>43449</v>
       </c>
-      <c r="C146" t="s">
+      <c r="C146" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="F146">
+      <c r="D146" s="3"/>
+      <c r="E146" s="3"/>
+      <c r="F146" s="8">
         <v>281.93</v>
       </c>
-      <c r="G146">
+      <c r="G146" s="8">
         <v>1369.17</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A147" s="1">
+    <row x14ac:dyDescent="0.25" r="147" customHeight="1" ht="18.75">
+      <c r="A147" s="6">
         <v>43449</v>
       </c>
-      <c r="B147" s="1">
+      <c r="B147" s="6">
         <v>43449</v>
       </c>
-      <c r="C147" t="s">
+      <c r="C147" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="E147">
+      <c r="D147" s="3"/>
+      <c r="E147" s="7">
         <v>1000</v>
       </c>
-      <c r="G147">
+      <c r="F147" s="4"/>
+      <c r="G147" s="8">
         <v>369.17</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A148" s="1">
+    <row x14ac:dyDescent="0.25" r="148" customHeight="1" ht="18.75">
+      <c r="A148" s="6">
         <v>43451</v>
       </c>
-      <c r="B148" s="1">
+      <c r="B148" s="6">
         <v>43451</v>
       </c>
-      <c r="C148" t="s">
+      <c r="C148" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="E148">
+      <c r="D148" s="3"/>
+      <c r="E148" s="7">
         <v>200</v>
       </c>
-      <c r="G148">
+      <c r="F148" s="4"/>
+      <c r="G148" s="8">
         <v>169.17</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A149" s="1">
+    <row x14ac:dyDescent="0.25" r="149" customHeight="1" ht="18.75">
+      <c r="A149" s="6">
         <v>43456</v>
       </c>
-      <c r="B149" s="1">
+      <c r="B149" s="6">
         <v>43456</v>
       </c>
-      <c r="C149" t="s">
+      <c r="C149" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="F149">
+      <c r="D149" s="3"/>
+      <c r="E149" s="3"/>
+      <c r="F149" s="7">
         <v>1</v>
       </c>
-      <c r="G149">
+      <c r="G149" s="8">
         <v>170.17</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A150" s="1">
+    <row x14ac:dyDescent="0.25" r="150" customHeight="1" ht="18.75">
+      <c r="A150" s="6">
         <v>43457</v>
       </c>
-      <c r="B150" s="1">
+      <c r="B150" s="6">
         <v>43457</v>
       </c>
-      <c r="C150" t="s">
+      <c r="C150" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="F150">
+      <c r="D150" s="3"/>
+      <c r="E150" s="3"/>
+      <c r="F150" s="7">
         <v>250</v>
       </c>
-      <c r="G150">
+      <c r="G150" s="8">
         <v>420.17</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A151" s="1">
+    <row x14ac:dyDescent="0.25" r="151" customHeight="1" ht="18.75">
+      <c r="A151" s="6">
         <v>43457</v>
       </c>
-      <c r="B151" s="1">
+      <c r="B151" s="6">
         <v>43457</v>
       </c>
-      <c r="C151" t="s">
+      <c r="C151" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="E151">
+      <c r="D151" s="3"/>
+      <c r="E151" s="7">
         <v>400</v>
       </c>
-      <c r="G151">
-        <v>20.170000000000002</v>
-      </c>
-    </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A152" s="1">
+      <c r="F151" s="4"/>
+      <c r="G151" s="8">
+        <v>20.17</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="152" customHeight="1" ht="18.75">
+      <c r="A152" s="6">
         <v>43457</v>
       </c>
-      <c r="B152" s="1">
+      <c r="B152" s="6">
         <v>43457</v>
       </c>
-      <c r="C152" t="s">
+      <c r="C152" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="F152">
+      <c r="D152" s="3"/>
+      <c r="E152" s="3"/>
+      <c r="F152" s="7">
         <v>4493</v>
       </c>
-      <c r="G152">
+      <c r="G152" s="8">
         <v>4513.17</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A153" s="1">
+    <row x14ac:dyDescent="0.25" r="153" customHeight="1" ht="18.75">
+      <c r="A153" s="6">
         <v>43457</v>
       </c>
-      <c r="B153" s="1">
+      <c r="B153" s="6">
         <v>43457</v>
       </c>
-      <c r="C153" t="s">
+      <c r="C153" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="E153">
+      <c r="D153" s="3"/>
+      <c r="E153" s="7">
         <v>509</v>
       </c>
-      <c r="G153">
+      <c r="F153" s="4"/>
+      <c r="G153" s="8">
         <v>4004.17</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A154" s="1">
+    <row x14ac:dyDescent="0.25" r="154" customHeight="1" ht="18.75">
+      <c r="A154" s="6">
         <v>43458</v>
       </c>
-      <c r="B154" s="1">
+      <c r="B154" s="6">
         <v>43458</v>
       </c>
-      <c r="C154" t="s">
+      <c r="C154" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="E154">
+      <c r="D154" s="3"/>
+      <c r="E154" s="7">
         <v>3000</v>
       </c>
-      <c r="G154">
+      <c r="F154" s="4"/>
+      <c r="G154" s="8">
         <v>1004.17</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A155" s="1">
+    <row x14ac:dyDescent="0.25" r="155" customHeight="1" ht="18.75">
+      <c r="A155" s="6">
         <v>43459</v>
       </c>
-      <c r="B155" s="1">
+      <c r="B155" s="6">
         <v>43459</v>
       </c>
-      <c r="C155" t="s">
+      <c r="C155" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="E155">
+      <c r="D155" s="3"/>
+      <c r="E155" s="7">
         <v>1000</v>
       </c>
-      <c r="G155">
+      <c r="F155" s="4"/>
+      <c r="G155" s="8">
         <v>4.17</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A156" s="1">
+    <row x14ac:dyDescent="0.25" r="156" customHeight="1" ht="18.75">
+      <c r="A156" s="6">
         <v>43461</v>
       </c>
-      <c r="B156" s="1">
+      <c r="B156" s="6">
         <v>43461</v>
       </c>
-      <c r="C156" t="s">
+      <c r="C156" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="F156">
-        <v>5150.3999999999996</v>
-      </c>
-      <c r="G156">
+      <c r="D156" s="3"/>
+      <c r="E156" s="3"/>
+      <c r="F156" s="8">
+        <v>5150.4</v>
+      </c>
+      <c r="G156" s="8">
         <v>5154.57</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A157" s="1">
+    <row x14ac:dyDescent="0.25" r="157" customHeight="1" ht="18.75">
+      <c r="A157" s="6">
         <v>43462</v>
       </c>
-      <c r="B157" s="1">
+      <c r="B157" s="6">
         <v>43462</v>
       </c>
-      <c r="C157" t="s">
+      <c r="C157" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="E157">
+      <c r="D157" s="3"/>
+      <c r="E157" s="7">
         <v>4000</v>
       </c>
-      <c r="G157">
+      <c r="F157" s="4"/>
+      <c r="G157" s="8">
         <v>1154.57</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A158" s="1">
+    <row x14ac:dyDescent="0.25" r="158" customHeight="1" ht="18.75">
+      <c r="A158" s="6">
         <v>43463</v>
       </c>
-      <c r="B158" s="1">
+      <c r="B158" s="6">
         <v>43463</v>
       </c>
-      <c r="C158" t="s">
+      <c r="C158" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="E158">
+      <c r="D158" s="3"/>
+      <c r="E158" s="7">
         <v>1000</v>
       </c>
-      <c r="G158">
+      <c r="F158" s="4"/>
+      <c r="G158" s="8">
         <v>154.57</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A159" s="1">
+    <row x14ac:dyDescent="0.25" r="159" customHeight="1" ht="18.75">
+      <c r="A159" s="6">
         <v>43464</v>
       </c>
-      <c r="B159" s="1">
+      <c r="B159" s="6">
         <v>43464</v>
       </c>
-      <c r="C159" t="s">
+      <c r="C159" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="E159">
+      <c r="D159" s="3"/>
+      <c r="E159" s="7">
         <v>80</v>
       </c>
-      <c r="G159">
-        <v>74.569999999999993</v>
-      </c>
-    </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A160" s="1">
+      <c r="F159" s="4"/>
+      <c r="G159" s="8">
+        <v>74.57</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="160" customHeight="1" ht="18.75">
+      <c r="A160" s="6">
         <v>43465</v>
       </c>
-      <c r="B160" s="1">
+      <c r="B160" s="6">
         <v>43465</v>
       </c>
-      <c r="C160" t="s">
+      <c r="C160" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="F160">
+      <c r="D160" s="3"/>
+      <c r="E160" s="3"/>
+      <c r="F160" s="7">
         <v>24</v>
       </c>
-      <c r="G160">
+      <c r="G160" s="8">
         <v>98.57</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A161" s="1">
+    <row x14ac:dyDescent="0.25" r="161" customHeight="1" ht="18.75">
+      <c r="A161" s="6">
         <v>43466</v>
       </c>
-      <c r="B161" s="1">
+      <c r="B161" s="6">
         <v>43466</v>
       </c>
-      <c r="C161" t="s">
+      <c r="C161" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="E161">
+      <c r="D161" s="3"/>
+      <c r="E161" s="7">
         <v>20</v>
       </c>
-      <c r="G161">
-        <v>78.569999999999993</v>
-      </c>
-    </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A162" s="1">
+      <c r="F161" s="4"/>
+      <c r="G161" s="8">
+        <v>78.57</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="162" customHeight="1" ht="18.75">
+      <c r="A162" s="6">
         <v>43466</v>
       </c>
-      <c r="B162" s="1">
+      <c r="B162" s="6">
         <v>43466</v>
       </c>
-      <c r="C162" t="s">
+      <c r="C162" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="E162">
+      <c r="D162" s="3"/>
+      <c r="E162" s="8">
         <v>1.8</v>
       </c>
-      <c r="G162">
+      <c r="F162" s="4"/>
+      <c r="G162" s="8">
         <v>76.77</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A163" s="1">
+    <row x14ac:dyDescent="0.25" r="163" customHeight="1" ht="18.75">
+      <c r="A163" s="6">
         <v>43466</v>
       </c>
-      <c r="B163" s="1">
+      <c r="B163" s="6">
         <v>43466</v>
       </c>
-      <c r="C163" t="s">
+      <c r="C163" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="E163">
+      <c r="D163" s="3"/>
+      <c r="E163" s="8">
         <v>1.8</v>
       </c>
-      <c r="G163">
+      <c r="F163" s="4"/>
+      <c r="G163" s="8">
         <v>74.97</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A164" s="1">
+    <row x14ac:dyDescent="0.25" r="164" customHeight="1" ht="18.75">
+      <c r="A164" s="6">
         <v>43475</v>
       </c>
-      <c r="B164" s="1">
+      <c r="B164" s="6">
         <v>43475</v>
       </c>
-      <c r="C164" t="s">
+      <c r="C164" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="F164">
+      <c r="D164" s="3"/>
+      <c r="E164" s="3"/>
+      <c r="F164" s="7">
         <v>2200</v>
       </c>
-      <c r="G164">
-        <v>2274.9699999999998</v>
-      </c>
-    </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A165" s="1">
+      <c r="G164" s="8">
+        <v>2274.97</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="165" customHeight="1" ht="18.75">
+      <c r="A165" s="6">
         <v>43476</v>
       </c>
-      <c r="B165" s="1">
+      <c r="B165" s="6">
         <v>43476</v>
       </c>
-      <c r="C165" t="s">
+      <c r="C165" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="E165">
+      <c r="D165" s="3"/>
+      <c r="E165" s="7">
         <v>2000</v>
       </c>
-      <c r="G165">
-        <v>274.97000000000003</v>
-      </c>
-    </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A166" s="1">
+      <c r="F165" s="4"/>
+      <c r="G165" s="8">
+        <v>274.97</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="166" customHeight="1" ht="18.75">
+      <c r="A166" s="6">
         <v>43481</v>
       </c>
-      <c r="B166" s="1">
+      <c r="B166" s="6">
         <v>43481</v>
       </c>
-      <c r="C166" t="s">
+      <c r="C166" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="E166">
+      <c r="D166" s="3"/>
+      <c r="E166" s="7">
         <v>75</v>
       </c>
-      <c r="G166">
+      <c r="F166" s="4"/>
+      <c r="G166" s="8">
         <v>199.97</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A167" s="1">
+    <row x14ac:dyDescent="0.25" r="167" customHeight="1" ht="18.75">
+      <c r="A167" s="6">
         <v>43484</v>
       </c>
-      <c r="B167" s="1">
+      <c r="B167" s="6">
         <v>43484</v>
       </c>
-      <c r="C167" t="s">
+      <c r="C167" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="E167">
+      <c r="D167" s="3"/>
+      <c r="E167" s="7">
         <v>80</v>
       </c>
-      <c r="G167">
+      <c r="F167" s="4"/>
+      <c r="G167" s="8">
         <v>119.97</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A168" s="1">
+    <row x14ac:dyDescent="0.25" r="168" customHeight="1" ht="18.75">
+      <c r="A168" s="6">
         <v>43489</v>
       </c>
-      <c r="B168" s="1">
+      <c r="B168" s="6">
         <v>43489</v>
       </c>
-      <c r="C168" t="s">
+      <c r="C168" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="E168">
+      <c r="D168" s="3"/>
+      <c r="E168" s="7">
         <v>80</v>
       </c>
-      <c r="G168">
+      <c r="F168" s="4"/>
+      <c r="G168" s="8">
         <v>39.97</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A169" s="1">
+    <row x14ac:dyDescent="0.25" r="169" customHeight="1" ht="18.75">
+      <c r="A169" s="6">
         <v>43495</v>
       </c>
-      <c r="B169" s="1">
+      <c r="B169" s="6">
         <v>43495</v>
       </c>
-      <c r="C169" t="s">
+      <c r="C169" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="F169">
+      <c r="D169" s="3"/>
+      <c r="E169" s="3"/>
+      <c r="F169" s="7">
         <v>3410</v>
       </c>
-      <c r="G169">
+      <c r="G169" s="8">
         <v>3449.97</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A170" s="1">
+    <row x14ac:dyDescent="0.25" r="170" customHeight="1" ht="18.75">
+      <c r="A170" s="6">
         <v>43495</v>
       </c>
-      <c r="B170" s="1">
+      <c r="B170" s="6">
         <v>43495</v>
       </c>
-      <c r="C170" t="s">
+      <c r="C170" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="E170">
+      <c r="D170" s="3"/>
+      <c r="E170" s="7">
         <v>349</v>
       </c>
-      <c r="G170">
+      <c r="F170" s="4"/>
+      <c r="G170" s="8">
         <v>3100.97</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A171" s="1">
+    <row x14ac:dyDescent="0.25" r="171" customHeight="1" ht="18.75">
+      <c r="A171" s="6">
         <v>43497</v>
       </c>
-      <c r="B171" s="1">
+      <c r="B171" s="6">
         <v>43497</v>
       </c>
-      <c r="C171" t="s">
+      <c r="C171" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="F171">
+      <c r="D171" s="3"/>
+      <c r="E171" s="3"/>
+      <c r="F171" s="8">
         <v>167.34</v>
       </c>
-      <c r="G171">
+      <c r="G171" s="8">
         <v>3268.31</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A172" s="1">
+    <row x14ac:dyDescent="0.25" r="172" customHeight="1" ht="18.75">
+      <c r="A172" s="6">
         <v>43497</v>
       </c>
-      <c r="B172" s="1">
+      <c r="B172" s="6">
         <v>43497</v>
       </c>
-      <c r="C172" t="s">
+      <c r="C172" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="E172">
+      <c r="D172" s="3"/>
+      <c r="E172" s="7">
         <v>500</v>
       </c>
-      <c r="G172">
+      <c r="F172" s="4"/>
+      <c r="G172" s="8">
         <v>2768.31</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A173" s="1">
+    <row x14ac:dyDescent="0.25" r="173" customHeight="1" ht="18.75">
+      <c r="A173" s="6">
         <v>43498</v>
       </c>
-      <c r="B173" s="1">
+      <c r="B173" s="6">
         <v>43498</v>
       </c>
-      <c r="C173" t="s">
+      <c r="C173" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="E173">
+      <c r="D173" s="3"/>
+      <c r="E173" s="7">
         <v>288</v>
       </c>
-      <c r="G173">
+      <c r="F173" s="4"/>
+      <c r="G173" s="8">
         <v>2480.31</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A174" s="1">
+    <row x14ac:dyDescent="0.25" r="174" customHeight="1" ht="18.75">
+      <c r="A174" s="6">
         <v>43499</v>
       </c>
-      <c r="B174" s="1">
+      <c r="B174" s="6">
         <v>43499</v>
       </c>
-      <c r="C174" t="s">
+      <c r="C174" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="E174">
+      <c r="D174" s="3"/>
+      <c r="E174" s="7">
         <v>2200</v>
       </c>
-      <c r="G174">
+      <c r="F174" s="4"/>
+      <c r="G174" s="8">
         <v>280.31</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A175" s="1">
+    <row x14ac:dyDescent="0.25" r="175" customHeight="1" ht="18.75">
+      <c r="A175" s="6">
         <v>43499</v>
       </c>
-      <c r="B175" s="1">
+      <c r="B175" s="6">
         <v>43499</v>
       </c>
-      <c r="C175" t="s">
+      <c r="C175" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="F175">
+      <c r="D175" s="3"/>
+      <c r="E175" s="3"/>
+      <c r="F175" s="7">
         <v>2200</v>
       </c>
-      <c r="G175">
+      <c r="G175" s="8">
         <v>2480.31</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A176" s="1">
+    <row x14ac:dyDescent="0.25" r="176" customHeight="1" ht="18.75">
+      <c r="A176" s="6">
         <v>43500</v>
       </c>
-      <c r="B176" s="1">
+      <c r="B176" s="6">
         <v>43500</v>
       </c>
-      <c r="C176" t="s">
+      <c r="C176" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="E176">
+      <c r="D176" s="3"/>
+      <c r="E176" s="7">
         <v>2200</v>
       </c>
-      <c r="G176">
+      <c r="F176" s="4"/>
+      <c r="G176" s="8">
         <v>280.31</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A177" s="1">
+    <row x14ac:dyDescent="0.25" r="177" customHeight="1" ht="18.75">
+      <c r="A177" s="6">
         <v>43508</v>
       </c>
-      <c r="B177" s="1">
+      <c r="B177" s="6">
         <v>43508</v>
       </c>
-      <c r="C177" t="s">
+      <c r="C177" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="F177">
+      <c r="D177" s="3"/>
+      <c r="E177" s="3"/>
+      <c r="F177" s="7">
         <v>2200</v>
       </c>
-      <c r="G177">
+      <c r="G177" s="8">
         <v>2480.31</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A178" s="1">
+    <row x14ac:dyDescent="0.25" r="178" customHeight="1" ht="18.75">
+      <c r="A178" s="6">
         <v>43509</v>
       </c>
-      <c r="B178" s="1">
+      <c r="B178" s="6">
         <v>43509</v>
       </c>
-      <c r="C178" t="s">
+      <c r="C178" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="E178">
+      <c r="D178" s="3"/>
+      <c r="E178" s="7">
         <v>120</v>
       </c>
-      <c r="G178">
+      <c r="F178" s="4"/>
+      <c r="G178" s="8">
         <v>2360.31</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A179" s="1">
+    <row x14ac:dyDescent="0.25" r="179" customHeight="1" ht="18.75">
+      <c r="A179" s="6">
         <v>43510</v>
       </c>
-      <c r="B179" s="1">
+      <c r="B179" s="6">
         <v>43510</v>
       </c>
-      <c r="C179" t="s">
+      <c r="C179" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="E179">
+      <c r="D179" s="3"/>
+      <c r="E179" s="7">
         <v>200</v>
       </c>
-      <c r="G179">
+      <c r="F179" s="4"/>
+      <c r="G179" s="8">
         <v>2160.31</v>
       </c>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A180" s="1">
+    <row x14ac:dyDescent="0.25" r="180" customHeight="1" ht="18.75">
+      <c r="A180" s="6">
         <v>43510</v>
       </c>
-      <c r="B180" s="1">
+      <c r="B180" s="6">
         <v>43510</v>
       </c>
-      <c r="C180" t="s">
+      <c r="C180" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="E180">
+      <c r="D180" s="3"/>
+      <c r="E180" s="7">
         <v>2000</v>
       </c>
-      <c r="G180">
+      <c r="F180" s="4"/>
+      <c r="G180" s="8">
         <v>160.31</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A181" s="1">
+    <row x14ac:dyDescent="0.25" r="181" customHeight="1" ht="18.75">
+      <c r="A181" s="6">
         <v>43513</v>
       </c>
-      <c r="B181" s="1">
+      <c r="B181" s="6">
         <v>43513</v>
       </c>
-      <c r="C181" t="s">
+      <c r="C181" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="E181">
+      <c r="D181" s="3"/>
+      <c r="E181" s="7">
         <v>24</v>
       </c>
-      <c r="G181">
+      <c r="F181" s="4"/>
+      <c r="G181" s="8">
         <v>136.31</v>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A182" s="1">
+    <row x14ac:dyDescent="0.25" r="182" customHeight="1" ht="18.75">
+      <c r="A182" s="6">
         <v>43514</v>
       </c>
-      <c r="B182" s="1">
+      <c r="B182" s="6">
         <v>43514</v>
       </c>
-      <c r="C182" t="s">
+      <c r="C182" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="E182">
+      <c r="D182" s="3"/>
+      <c r="E182" s="7">
         <v>80</v>
       </c>
-      <c r="G182">
+      <c r="F182" s="4"/>
+      <c r="G182" s="8">
         <v>56.31</v>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A183" s="1">
+    <row x14ac:dyDescent="0.25" r="183" customHeight="1" ht="18.75">
+      <c r="A183" s="6">
         <v>43523</v>
       </c>
-      <c r="B183" s="1">
+      <c r="B183" s="6">
         <v>43523</v>
       </c>
-      <c r="C183" t="s">
+      <c r="C183" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="F183">
+      <c r="D183" s="3"/>
+      <c r="E183" s="3"/>
+      <c r="F183" s="7">
         <v>3000</v>
       </c>
-      <c r="G183">
+      <c r="G183" s="8">
         <v>3056.31</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A184" s="1">
+    <row x14ac:dyDescent="0.25" r="184" customHeight="1" ht="18.75">
+      <c r="A184" s="6">
         <v>43523</v>
       </c>
-      <c r="B184" s="1">
+      <c r="B184" s="6">
         <v>43523</v>
       </c>
-      <c r="C184" t="s">
+      <c r="C184" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="E184">
+      <c r="D184" s="3"/>
+      <c r="E184" s="7">
         <v>3000</v>
       </c>
-      <c r="G184">
+      <c r="F184" s="4"/>
+      <c r="G184" s="8">
         <v>56.31</v>
       </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A185" s="1">
+    <row x14ac:dyDescent="0.25" r="185" customHeight="1" ht="18.75">
+      <c r="A185" s="6">
         <v>43526</v>
       </c>
-      <c r="B185" s="1">
+      <c r="B185" s="6">
         <v>43526</v>
       </c>
-      <c r="C185" t="s">
+      <c r="C185" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="F185">
+      <c r="D185" s="3"/>
+      <c r="E185" s="3"/>
+      <c r="F185" s="8">
         <v>138.81</v>
       </c>
-      <c r="G185">
+      <c r="G185" s="8">
         <v>195.12</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A186" s="1">
+    <row x14ac:dyDescent="0.25" r="186" customHeight="1" ht="18.75">
+      <c r="A186" s="6">
         <v>43527</v>
       </c>
-      <c r="B186" s="1">
+      <c r="B186" s="6">
         <v>43527</v>
       </c>
-      <c r="C186" t="s">
+      <c r="C186" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="E186">
+      <c r="D186" s="3"/>
+      <c r="E186" s="7">
         <v>80</v>
       </c>
-      <c r="G186">
+      <c r="F186" s="4"/>
+      <c r="G186" s="8">
         <v>115.12</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A187" s="1">
+    <row x14ac:dyDescent="0.25" r="187" customHeight="1" ht="18.75">
+      <c r="A187" s="6">
         <v>43529</v>
       </c>
-      <c r="B187" s="1">
+      <c r="B187" s="6">
         <v>43529</v>
       </c>
-      <c r="C187" t="s">
+      <c r="C187" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="F187">
+      <c r="D187" s="3"/>
+      <c r="E187" s="3"/>
+      <c r="F187" s="7">
         <v>1800</v>
       </c>
-      <c r="G187">
+      <c r="G187" s="8">
         <v>1915.12</v>
       </c>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A188" s="1">
+    <row x14ac:dyDescent="0.25" r="188" customHeight="1" ht="18.75">
+      <c r="A188" s="6">
         <v>43530</v>
       </c>
-      <c r="B188" s="1">
+      <c r="B188" s="6">
         <v>43530</v>
       </c>
-      <c r="C188" t="s">
+      <c r="C188" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="E188">
+      <c r="D188" s="3"/>
+      <c r="E188" s="7">
         <v>1000</v>
       </c>
-      <c r="G188">
+      <c r="F188" s="4"/>
+      <c r="G188" s="8">
         <v>915.12</v>
       </c>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A189" s="1">
+    <row x14ac:dyDescent="0.25" r="189" customHeight="1" ht="18.75">
+      <c r="A189" s="6">
         <v>43532</v>
       </c>
-      <c r="B189" s="1">
+      <c r="B189" s="6">
         <v>43532</v>
       </c>
-      <c r="C189" t="s">
+      <c r="C189" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="F189">
+      <c r="D189" s="3"/>
+      <c r="E189" s="3"/>
+      <c r="F189" s="7">
         <v>3900</v>
       </c>
-      <c r="G189">
+      <c r="G189" s="8">
         <v>4815.12</v>
       </c>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A190" s="1">
+    <row x14ac:dyDescent="0.25" r="190" customHeight="1" ht="18.75">
+      <c r="A190" s="6">
         <v>43532</v>
       </c>
-      <c r="B190" s="1">
+      <c r="B190" s="6">
         <v>43532</v>
       </c>
-      <c r="C190" t="s">
+      <c r="C190" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="E190">
+      <c r="D190" s="3"/>
+      <c r="E190" s="7">
         <v>90</v>
       </c>
-      <c r="G190">
+      <c r="F190" s="4"/>
+      <c r="G190" s="8">
         <v>4725.12</v>
       </c>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A191" s="1">
+    <row x14ac:dyDescent="0.25" r="191" customHeight="1" ht="18.75">
+      <c r="A191" s="6">
         <v>43533</v>
       </c>
-      <c r="B191" s="1">
+      <c r="B191" s="6">
         <v>43533</v>
       </c>
-      <c r="C191" t="s">
+      <c r="C191" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="E191">
+      <c r="D191" s="3"/>
+      <c r="E191" s="7">
         <v>50</v>
       </c>
-      <c r="G191">
+      <c r="F191" s="4"/>
+      <c r="G191" s="8">
         <v>4675.12</v>
       </c>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A192" s="1">
+    <row x14ac:dyDescent="0.25" r="192" customHeight="1" ht="18.75">
+      <c r="A192" s="6">
         <v>43534</v>
       </c>
-      <c r="B192" s="1">
+      <c r="B192" s="6">
         <v>43534</v>
       </c>
-      <c r="C192" t="s">
+      <c r="C192" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="E192">
+      <c r="D192" s="3"/>
+      <c r="E192" s="7">
         <v>80</v>
       </c>
-      <c r="G192">
+      <c r="F192" s="4"/>
+      <c r="G192" s="8">
         <v>4595.12</v>
       </c>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A193" s="1">
+    <row x14ac:dyDescent="0.25" r="193" customHeight="1" ht="18.75">
+      <c r="A193" s="6">
         <v>43534</v>
       </c>
-      <c r="B193" s="1">
+      <c r="B193" s="6">
         <v>43534</v>
       </c>
-      <c r="C193" t="s">
+      <c r="C193" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="E193">
+      <c r="D193" s="3"/>
+      <c r="E193" s="7">
         <v>600</v>
       </c>
-      <c r="G193">
+      <c r="F193" s="4"/>
+      <c r="G193" s="8">
         <v>3995.12</v>
       </c>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A194" s="1">
+    <row x14ac:dyDescent="0.25" r="194" customHeight="1" ht="18.75">
+      <c r="A194" s="6">
         <v>43535</v>
       </c>
-      <c r="B194" s="1">
+      <c r="B194" s="6">
         <v>43535</v>
       </c>
-      <c r="C194" t="s">
+      <c r="C194" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="E194">
+      <c r="D194" s="3"/>
+      <c r="E194" s="7">
         <v>80</v>
       </c>
-      <c r="G194">
+      <c r="F194" s="4"/>
+      <c r="G194" s="8">
         <v>3915.12</v>
       </c>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A195" s="1">
+    <row x14ac:dyDescent="0.25" r="195" customHeight="1" ht="18.75">
+      <c r="A195" s="6">
         <v>43535</v>
       </c>
-      <c r="B195" s="1">
+      <c r="B195" s="6">
         <v>43535</v>
       </c>
-      <c r="C195" t="s">
+      <c r="C195" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="E195">
+      <c r="D195" s="3"/>
+      <c r="E195" s="7">
         <v>79</v>
       </c>
-      <c r="G195">
+      <c r="F195" s="4"/>
+      <c r="G195" s="8">
         <v>3836.12</v>
       </c>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A196" s="1">
+    <row x14ac:dyDescent="0.25" r="196" customHeight="1" ht="18.75">
+      <c r="A196" s="6">
         <v>43535</v>
       </c>
-      <c r="B196" s="1">
+      <c r="B196" s="6">
         <v>43535</v>
       </c>
-      <c r="C196" t="s">
+      <c r="C196" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="E196">
+      <c r="D196" s="3"/>
+      <c r="E196" s="7">
         <v>2000</v>
       </c>
-      <c r="G196">
+      <c r="F196" s="4"/>
+      <c r="G196" s="8">
         <v>1836.12</v>
       </c>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A197" s="1">
+    <row x14ac:dyDescent="0.25" r="197" customHeight="1" ht="18.75">
+      <c r="A197" s="6">
         <v>43535</v>
       </c>
-      <c r="B197" s="1">
+      <c r="B197" s="6">
         <v>43535</v>
       </c>
-      <c r="C197" t="s">
+      <c r="C197" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="E197">
+      <c r="D197" s="3"/>
+      <c r="E197" s="7">
         <v>650</v>
       </c>
-      <c r="G197">
-        <v>1186.1199999999999</v>
-      </c>
-    </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A198" s="1">
+      <c r="F197" s="4"/>
+      <c r="G197" s="8">
+        <v>1186.12</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="198" customHeight="1" ht="18.75">
+      <c r="A198" s="6">
         <v>43535</v>
       </c>
-      <c r="B198" s="1">
+      <c r="B198" s="6">
         <v>43535</v>
       </c>
-      <c r="C198" t="s">
+      <c r="C198" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="E198">
+      <c r="D198" s="3"/>
+      <c r="E198" s="7">
         <v>450</v>
       </c>
-      <c r="G198">
+      <c r="F198" s="4"/>
+      <c r="G198" s="8">
         <v>736.12</v>
       </c>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A199" s="1">
+    <row x14ac:dyDescent="0.25" r="199" customHeight="1" ht="18.75">
+      <c r="A199" s="6">
         <v>43536</v>
       </c>
-      <c r="B199" s="1">
+      <c r="B199" s="6">
         <v>43536</v>
       </c>
-      <c r="C199" t="s">
+      <c r="C199" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="F199">
+      <c r="D199" s="3"/>
+      <c r="E199" s="3"/>
+      <c r="F199" s="7">
         <v>2000</v>
       </c>
-      <c r="G199">
+      <c r="G199" s="8">
         <v>2736.12</v>
       </c>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A200" s="1">
+    <row x14ac:dyDescent="0.25" r="200" customHeight="1" ht="18.75">
+      <c r="A200" s="6">
         <v>43537</v>
       </c>
-      <c r="B200" s="1">
+      <c r="B200" s="6">
         <v>43537</v>
       </c>
-      <c r="C200" t="s">
+      <c r="C200" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="E200">
+      <c r="D200" s="3"/>
+      <c r="E200" s="7">
         <v>80</v>
       </c>
-      <c r="G200">
+      <c r="F200" s="4"/>
+      <c r="G200" s="8">
         <v>2656.12</v>
       </c>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A201" s="1">
+    <row x14ac:dyDescent="0.25" r="201" customHeight="1" ht="18.75">
+      <c r="A201" s="6">
         <v>43537</v>
       </c>
-      <c r="B201" s="1">
+      <c r="B201" s="6">
         <v>43537</v>
       </c>
-      <c r="C201" t="s">
+      <c r="C201" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="E201">
+      <c r="D201" s="3"/>
+      <c r="E201" s="7">
         <v>460</v>
       </c>
-      <c r="G201">
+      <c r="F201" s="4"/>
+      <c r="G201" s="8">
         <v>2196.12</v>
       </c>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A202" s="1">
+    <row x14ac:dyDescent="0.25" r="202" customHeight="1" ht="18.75">
+      <c r="A202" s="6">
         <v>43537</v>
       </c>
-      <c r="B202" s="1">
+      <c r="B202" s="6">
         <v>43537</v>
       </c>
-      <c r="C202" t="s">
+      <c r="C202" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="E202">
+      <c r="D202" s="3"/>
+      <c r="E202" s="7">
         <v>160</v>
       </c>
-      <c r="G202">
+      <c r="F202" s="4"/>
+      <c r="G202" s="8">
         <v>2036.12</v>
       </c>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A203" s="1">
+    <row x14ac:dyDescent="0.25" r="203" customHeight="1" ht="18.75">
+      <c r="A203" s="6">
         <v>43538</v>
       </c>
-      <c r="B203" s="1">
+      <c r="B203" s="6">
         <v>43538</v>
       </c>
-      <c r="C203" t="s">
+      <c r="C203" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="E203">
+      <c r="D203" s="3"/>
+      <c r="E203" s="7">
         <v>1000</v>
       </c>
-      <c r="G203">
-        <v>1036.1199999999999</v>
-      </c>
-    </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A204" s="1">
+      <c r="F203" s="4"/>
+      <c r="G203" s="8">
+        <v>1036.12</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="204" customHeight="1" ht="18.75">
+      <c r="A204" s="6">
         <v>43539</v>
       </c>
-      <c r="B204" s="1">
+      <c r="B204" s="6">
         <v>43539</v>
       </c>
-      <c r="C204" t="s">
+      <c r="C204" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="E204">
+      <c r="D204" s="3"/>
+      <c r="E204" s="7">
         <v>1000</v>
       </c>
-      <c r="G204">
-        <v>36.119999999999997</v>
-      </c>
-    </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A205" s="1">
+      <c r="F204" s="4"/>
+      <c r="G204" s="8">
+        <v>36.12</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="205" customHeight="1" ht="18.75">
+      <c r="A205" s="6">
         <v>43555</v>
       </c>
-      <c r="B205" s="1">
+      <c r="B205" s="6">
         <v>43555</v>
       </c>
-      <c r="C205" t="s">
+      <c r="C205" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="F205">
+      <c r="D205" s="3"/>
+      <c r="E205" s="3"/>
+      <c r="F205" s="7">
         <v>9</v>
       </c>
-      <c r="G205">
+      <c r="G205" s="8">
         <v>45.12</v>
       </c>
     </row>
